--- a/Code/Results/Cases/Case_2_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9873395419347033</v>
+        <v>0.9873395419347032</v>
       </c>
       <c r="D2">
-        <v>1.008179650096732</v>
+        <v>1.008179650096731</v>
       </c>
       <c r="E2">
-        <v>0.9636602339836696</v>
+        <v>0.9636602339836698</v>
       </c>
       <c r="F2">
         <v>0.9700901890992689</v>
@@ -445,7 +445,7 @@
         <v>1.019526193581544</v>
       </c>
       <c r="L2">
-        <v>0.9756501800953603</v>
+        <v>0.9756501800953605</v>
       </c>
       <c r="M2">
         <v>0.9819825641666569</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.994833454015891</v>
+        <v>0.9948334540158916</v>
       </c>
       <c r="D3">
-        <v>1.013948798698125</v>
+        <v>1.013948798698126</v>
       </c>
       <c r="E3">
-        <v>0.97024116583161</v>
+        <v>0.9702411658316104</v>
       </c>
       <c r="F3">
-        <v>0.9786798124922342</v>
+        <v>0.9786798124922348</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042083875631257</v>
+        <v>1.042083875631258</v>
       </c>
       <c r="J3">
         <v>1.015465962102106</v>
       </c>
       <c r="K3">
-        <v>1.02440625956481</v>
+        <v>1.024406259564811</v>
       </c>
       <c r="L3">
-        <v>0.9812695298741851</v>
+        <v>0.9812695298741855</v>
       </c>
       <c r="M3">
-        <v>0.9895929585502019</v>
+        <v>0.9895929585502026</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.999522047316225</v>
+        <v>0.9995220473162274</v>
       </c>
       <c r="D4">
-        <v>1.01755955385786</v>
+        <v>1.017559553857863</v>
       </c>
       <c r="E4">
-        <v>0.9743738444905289</v>
+        <v>0.9743738444905297</v>
       </c>
       <c r="F4">
-        <v>0.9840637688591416</v>
+        <v>0.9840637688591436</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043728577025423</v>
+        <v>1.043728577025425</v>
       </c>
       <c r="J4">
-        <v>1.018937987079133</v>
+        <v>1.018937987079136</v>
       </c>
       <c r="K4">
-        <v>1.027450571026179</v>
+        <v>1.027450571026181</v>
       </c>
       <c r="L4">
-        <v>0.9847917213020979</v>
+        <v>0.9847917213020989</v>
       </c>
       <c r="M4">
-        <v>0.9943584131170942</v>
+        <v>0.9943584131170963</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,10 +541,10 @@
         <v>1.019049855955257</v>
       </c>
       <c r="E5">
-        <v>0.9760829505270315</v>
+        <v>0.9760829505270318</v>
       </c>
       <c r="F5">
-        <v>0.9862881147383296</v>
+        <v>0.98628811473833</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>1.028704700573898</v>
       </c>
       <c r="L5">
-        <v>0.9862467754109532</v>
+        <v>0.9862467754109534</v>
       </c>
       <c r="M5">
-        <v>0.9963260617240434</v>
+        <v>0.9963260617240438</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -579,10 +579,10 @@
         <v>1.019298506452013</v>
       </c>
       <c r="E6">
-        <v>0.9763683084782726</v>
+        <v>0.9763683084782732</v>
       </c>
       <c r="F6">
-        <v>0.9866593725735633</v>
+        <v>0.986659372573564</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -594,13 +594,13 @@
         <v>1.020607834673439</v>
       </c>
       <c r="K6">
-        <v>1.02891380724356</v>
+        <v>1.028913807243561</v>
       </c>
       <c r="L6">
-        <v>0.9864896234664595</v>
+        <v>0.9864896234664601</v>
       </c>
       <c r="M6">
-        <v>0.9966544055146285</v>
+        <v>0.9966544055146291</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9995480411531802</v>
+        <v>0.9995480411531792</v>
       </c>
       <c r="D7">
-        <v>1.01757957400596</v>
+        <v>1.017579574005959</v>
       </c>
       <c r="E7">
-        <v>0.9743967904756834</v>
+        <v>0.9743967904756828</v>
       </c>
       <c r="F7">
-        <v>0.9840936409219719</v>
+        <v>0.984093640921971</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.043737657753292</v>
       </c>
       <c r="J7">
-        <v>1.018957220228082</v>
+        <v>1.01895722022808</v>
       </c>
       <c r="K7">
-        <v>1.027467427922388</v>
+        <v>1.027467427922387</v>
       </c>
       <c r="L7">
-        <v>0.9848112626917902</v>
+        <v>0.9848112626917895</v>
       </c>
       <c r="M7">
-        <v>0.9943848425042993</v>
+        <v>0.9943848425042984</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9899067996340183</v>
+        <v>0.98990679963402</v>
       </c>
       <c r="D8">
-        <v>1.010155696272397</v>
+        <v>1.010155696272399</v>
       </c>
       <c r="E8">
-        <v>0.9659114406105979</v>
+        <v>0.9659114406105981</v>
       </c>
       <c r="F8">
-        <v>0.973030794527964</v>
+        <v>0.9730307945279651</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040341957356798</v>
+        <v>1.040341957356799</v>
       </c>
       <c r="J8">
-        <v>1.011811891143868</v>
+        <v>1.011811891143869</v>
       </c>
       <c r="K8">
-        <v>1.021199837238163</v>
+        <v>1.021199837238165</v>
       </c>
       <c r="L8">
-        <v>0.9775738569026057</v>
+        <v>0.9775738569026059</v>
       </c>
       <c r="M8">
-        <v>0.9845889125583065</v>
+        <v>0.9845889125583074</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9715746287489128</v>
+        <v>0.9715746287489133</v>
       </c>
       <c r="D9">
-        <v>0.9960562306331352</v>
+        <v>0.9960562306331355</v>
       </c>
       <c r="E9">
-        <v>0.9499063042296503</v>
+        <v>0.9499063042296504</v>
       </c>
       <c r="F9">
-        <v>0.9520711315798138</v>
+        <v>0.9520711315798147</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.033755597235283</v>
       </c>
       <c r="J9">
-        <v>0.9981726960933152</v>
+        <v>0.9981726960933156</v>
       </c>
       <c r="K9">
         <v>1.00921361845719</v>
       </c>
       <c r="L9">
-        <v>0.963868002519548</v>
+        <v>0.9638680025195481</v>
       </c>
       <c r="M9">
-        <v>0.9659928294396287</v>
+        <v>0.9659928294396292</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9582672320844033</v>
+        <v>0.9582672320844045</v>
       </c>
       <c r="D10">
-        <v>0.9858425213449354</v>
+        <v>0.9858425213449368</v>
       </c>
       <c r="E10">
-        <v>0.9383832831902581</v>
+        <v>0.9383832831902582</v>
       </c>
       <c r="F10">
-        <v>0.936900325050064</v>
+        <v>0.9369003250500645</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028891221416154</v>
+        <v>1.028891221416155</v>
       </c>
       <c r="J10">
-        <v>0.9882403712829665</v>
+        <v>0.9882403712829675</v>
       </c>
       <c r="K10">
-        <v>1.000472186433616</v>
+        <v>1.000472186433617</v>
       </c>
       <c r="L10">
-        <v>0.9539619096855144</v>
+        <v>0.9539619096855145</v>
       </c>
       <c r="M10">
-        <v>0.9525106579559983</v>
+        <v>0.9525106579559988</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9521981162476312</v>
+        <v>0.9521981162476315</v>
       </c>
       <c r="D11">
-        <v>0.9811919356852993</v>
+        <v>0.9811919356852996</v>
       </c>
       <c r="E11">
-        <v>0.9331524611159345</v>
+        <v>0.9331524611159353</v>
       </c>
       <c r="F11">
-        <v>0.9299896835971115</v>
+        <v>0.9299896835971121</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.026654255506639</v>
       </c>
       <c r="J11">
-        <v>0.9837041857505778</v>
+        <v>0.9837041857505782</v>
       </c>
       <c r="K11">
-        <v>0.9964774798619018</v>
+        <v>0.9964774798619019</v>
       </c>
       <c r="L11">
-        <v>0.9494556254027111</v>
+        <v>0.9494556254027118</v>
       </c>
       <c r="M11">
-        <v>0.946364773324091</v>
+        <v>0.9463647733240915</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.949892675764373</v>
+        <v>0.9498926757643725</v>
       </c>
       <c r="D12">
-        <v>0.9794267341841928</v>
+        <v>0.9794267341841925</v>
       </c>
       <c r="E12">
-        <v>0.9311693248491822</v>
+        <v>0.9311693248491821</v>
       </c>
       <c r="F12">
-        <v>0.9273656122469985</v>
+        <v>0.9273656122469983</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025801865832227</v>
+        <v>1.025801865832226</v>
       </c>
       <c r="J12">
-        <v>0.9819802109254775</v>
+        <v>0.9819802109254772</v>
       </c>
       <c r="K12">
-        <v>0.994958992449979</v>
+        <v>0.9949589924499787</v>
       </c>
       <c r="L12">
-        <v>0.9477457268705134</v>
+        <v>0.9477457268705133</v>
       </c>
       <c r="M12">
-        <v>0.9440305050509151</v>
+        <v>0.9440305050509149</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -842,25 +842,25 @@
         <v>0.950389601609984</v>
       </c>
       <c r="D13">
-        <v>0.9798071472635027</v>
+        <v>0.9798071472635029</v>
       </c>
       <c r="E13">
-        <v>0.931596602010928</v>
+        <v>0.9315966020109281</v>
       </c>
       <c r="F13">
-        <v>0.9279311745049378</v>
+        <v>0.9279311745049377</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025985711197252</v>
+        <v>1.025985711197253</v>
       </c>
       <c r="J13">
-        <v>0.9823518407651585</v>
+        <v>0.9823518407651586</v>
       </c>
       <c r="K13">
-        <v>0.9952863387911974</v>
+        <v>0.9952863387911977</v>
       </c>
       <c r="L13">
         <v>0.9481141996228165</v>
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.952008621878056</v>
+        <v>0.9520086218780568</v>
       </c>
       <c r="D14">
-        <v>0.9810468162565764</v>
+        <v>0.9810468162565774</v>
       </c>
       <c r="E14">
-        <v>0.9329893788877122</v>
+        <v>0.9329893788877126</v>
       </c>
       <c r="F14">
-        <v>0.9297739799522556</v>
+        <v>0.9297739799522564</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.02658424663002</v>
       </c>
       <c r="J14">
-        <v>0.9835625009339064</v>
+        <v>0.9835625009339072</v>
       </c>
       <c r="K14">
-        <v>0.9963526887495415</v>
+        <v>0.9963526887495425</v>
       </c>
       <c r="L14">
-        <v>0.9493150423830207</v>
+        <v>0.9493150423830211</v>
       </c>
       <c r="M14">
-        <v>0.9461729033921864</v>
+        <v>0.946172903392187</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9529992199703881</v>
+        <v>0.9529992199703876</v>
       </c>
       <c r="D15">
-        <v>0.9818054985008866</v>
+        <v>0.9818054985008857</v>
       </c>
       <c r="E15">
-        <v>0.9338420633132012</v>
+        <v>0.9338420633132009</v>
       </c>
       <c r="F15">
-        <v>0.9309016298995837</v>
+        <v>0.9309016298995831</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.02695011746021</v>
       </c>
       <c r="J15">
-        <v>0.9843031371053405</v>
+        <v>0.9843031371053399</v>
       </c>
       <c r="K15">
-        <v>0.997005003763054</v>
+        <v>0.9970050037630531</v>
       </c>
       <c r="L15">
-        <v>0.9500500292570273</v>
+        <v>0.9500500292570271</v>
       </c>
       <c r="M15">
-        <v>0.9471759328043147</v>
+        <v>0.9471759328043143</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,7 +953,7 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9586631441105797</v>
+        <v>0.95866314411058</v>
       </c>
       <c r="D16">
         <v>0.9861460739000558</v>
@@ -962,7 +962,7 @@
         <v>0.9387250302914369</v>
       </c>
       <c r="F16">
-        <v>0.9373512874454148</v>
+        <v>0.9373512874454151</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.029036776919759</v>
       </c>
       <c r="J16">
-        <v>0.9885361626487542</v>
+        <v>0.9885361626487543</v>
       </c>
       <c r="K16">
         <v>1.000732624760876</v>
       </c>
       <c r="L16">
-        <v>0.9542561222778635</v>
+        <v>0.9542561222778636</v>
       </c>
       <c r="M16">
-        <v>0.9529116299405387</v>
+        <v>0.9529116299405389</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9621305115386305</v>
+        <v>0.9621305115386297</v>
       </c>
       <c r="D17">
-        <v>0.988805443578417</v>
+        <v>0.9888054435784164</v>
       </c>
       <c r="E17">
-        <v>0.9417207968713294</v>
+        <v>0.9417207968713293</v>
       </c>
       <c r="F17">
-        <v>0.9413016947564085</v>
+        <v>0.9413016947564079</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.030309480098503</v>
       </c>
       <c r="J17">
-        <v>0.9911259805575626</v>
+        <v>0.991125980557562</v>
       </c>
       <c r="K17">
-        <v>1.003012642865654</v>
+        <v>1.003012642865653</v>
       </c>
       <c r="L17">
-        <v>0.9568341309884421</v>
+        <v>0.9568341309884417</v>
       </c>
       <c r="M17">
-        <v>0.9564236315684309</v>
+        <v>0.9564236315684302</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,13 +1029,13 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9641237289252982</v>
+        <v>0.9641237289252977</v>
       </c>
       <c r="D18">
-        <v>0.9903348753410738</v>
+        <v>0.9903348753410732</v>
       </c>
       <c r="E18">
-        <v>0.9434451912966905</v>
+        <v>0.9434451912966906</v>
       </c>
       <c r="F18">
         <v>0.9435733813980968</v>
@@ -1047,13 +1047,13 @@
         <v>1.031039358353718</v>
       </c>
       <c r="J18">
-        <v>0.99261413740293</v>
+        <v>0.9926141374029298</v>
       </c>
       <c r="K18">
-        <v>1.004322553370175</v>
+        <v>1.004322553370174</v>
       </c>
       <c r="L18">
-        <v>0.9583171748925893</v>
+        <v>0.9583171748925898</v>
       </c>
       <c r="M18">
         <v>0.9584427897199714</v>
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9647985444111586</v>
+        <v>0.964798544411157</v>
       </c>
       <c r="D19">
-        <v>0.9908527840230185</v>
+        <v>0.990852784023017</v>
       </c>
       <c r="E19">
-        <v>0.9440293763485853</v>
+        <v>0.9440293763485846</v>
       </c>
       <c r="F19">
-        <v>0.9443426147055126</v>
+        <v>0.9443426147055117</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031286164973651</v>
+        <v>1.03128616497365</v>
       </c>
       <c r="J19">
-        <v>0.9931178566278532</v>
+        <v>0.9931178566278519</v>
       </c>
       <c r="K19">
-        <v>1.004765898174671</v>
+        <v>1.00476589817467</v>
       </c>
       <c r="L19">
-        <v>0.9588194467391449</v>
+        <v>0.9588194467391443</v>
       </c>
       <c r="M19">
-        <v>0.9591264384654936</v>
+        <v>0.9591264384654926</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9617615538248235</v>
+        <v>0.9617615538248241</v>
       </c>
       <c r="D20">
-        <v>0.9885223901164972</v>
+        <v>0.9885223901164977</v>
       </c>
       <c r="E20">
-        <v>0.9414017834748306</v>
+        <v>0.9414017834748307</v>
       </c>
       <c r="F20">
-        <v>0.9408812563062822</v>
+        <v>0.9408812563062826</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.030174233206344</v>
       </c>
       <c r="J20">
-        <v>0.9908504634081432</v>
+        <v>0.9908504634081436</v>
       </c>
       <c r="K20">
-        <v>1.002770107179698</v>
+        <v>1.002770107179699</v>
       </c>
       <c r="L20">
-        <v>0.9565596960091191</v>
+        <v>0.9565596960091192</v>
       </c>
       <c r="M20">
-        <v>0.956049895682054</v>
+        <v>0.9560498956820546</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9515333153563639</v>
+        <v>0.9515333153563651</v>
       </c>
       <c r="D21">
-        <v>0.9806828381154332</v>
+        <v>0.9806828381154343</v>
       </c>
       <c r="E21">
-        <v>0.9325803844244605</v>
+        <v>0.9325803844244603</v>
       </c>
       <c r="F21">
-        <v>0.9292329488364462</v>
+        <v>0.9292329488364474</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026408602130496</v>
+        <v>1.026408602130497</v>
       </c>
       <c r="J21">
-        <v>0.983207101473021</v>
+        <v>0.983207101473022</v>
       </c>
       <c r="K21">
-        <v>0.996039660509576</v>
+        <v>0.9960396605095769</v>
       </c>
       <c r="L21">
-        <v>0.9489624502952999</v>
+        <v>0.9489624502953001</v>
       </c>
       <c r="M21">
-        <v>0.945691643240224</v>
+        <v>0.945691643240225</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9448036895246513</v>
+        <v>0.9448036895246515</v>
       </c>
       <c r="D22">
-        <v>0.9755331355192444</v>
+        <v>0.9755331355192446</v>
       </c>
       <c r="E22">
-        <v>0.9267991630374269</v>
+        <v>0.9267991630374272</v>
       </c>
       <c r="F22">
-        <v>0.921574925857669</v>
+        <v>0.9215749258576692</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,13 +1199,13 @@
         <v>1.023915581854906</v>
       </c>
       <c r="J22">
-        <v>0.9781733267476641</v>
+        <v>0.9781733267476642</v>
       </c>
       <c r="K22">
-        <v>0.9916053830202772</v>
+        <v>0.9916053830202775</v>
       </c>
       <c r="L22">
-        <v>0.9439749672173753</v>
+        <v>0.9439749672173755</v>
       </c>
       <c r="M22">
         <v>0.9388783649864549</v>
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9484013860606044</v>
+        <v>0.948401386060603</v>
       </c>
       <c r="D23">
-        <v>0.9782853276495374</v>
+        <v>0.9782853276495358</v>
       </c>
       <c r="E23">
-        <v>0.9298876356917107</v>
+        <v>0.92988763569171</v>
       </c>
       <c r="F23">
-        <v>0.9256684755843013</v>
+        <v>0.9256684755842999</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.025249762983625</v>
       </c>
       <c r="J23">
-        <v>0.9808648247187763</v>
+        <v>0.980864824718775</v>
       </c>
       <c r="K23">
-        <v>0.9939764768392263</v>
+        <v>0.9939764768392247</v>
       </c>
       <c r="L23">
-        <v>0.946640215702111</v>
+        <v>0.9466402157021104</v>
       </c>
       <c r="M23">
-        <v>0.9425206468851829</v>
+        <v>0.9425206468851814</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9619283599242118</v>
+        <v>0.9619283599242117</v>
       </c>
       <c r="D24">
         <v>0.9886503566958331</v>
       </c>
       <c r="E24">
-        <v>0.941546002639375</v>
+        <v>0.9415460026393745</v>
       </c>
       <c r="F24">
-        <v>0.9410713344079623</v>
+        <v>0.9410713344079619</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1281,10 +1281,10 @@
         <v>1.002879760142318</v>
       </c>
       <c r="L24">
-        <v>0.9566837649674188</v>
+        <v>0.9566837649674181</v>
       </c>
       <c r="M24">
-        <v>0.956218861110518</v>
+        <v>0.9562188611105175</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9764904771251773</v>
+        <v>0.9764904771251779</v>
       </c>
       <c r="D25">
-        <v>0.9998342344125518</v>
+        <v>0.9998342344125525</v>
       </c>
       <c r="E25">
-        <v>0.9541825899485473</v>
+        <v>0.9541825899485472</v>
       </c>
       <c r="F25">
-        <v>0.9576835263349109</v>
+        <v>0.9576835263349112</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.035536243664535</v>
       </c>
       <c r="J25">
-        <v>1.001835786395908</v>
+        <v>1.001835786395909</v>
       </c>
       <c r="K25">
         <v>1.012435124223291</v>
       </c>
       <c r="L25">
-        <v>0.9675363984267696</v>
+        <v>0.9675363984267698</v>
       </c>
       <c r="M25">
-        <v>0.9709763063917417</v>
+        <v>0.9709763063917418</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9873395419347032</v>
+        <v>0.9873395419347033</v>
       </c>
       <c r="D2">
-        <v>1.008179650096731</v>
+        <v>1.008179650096732</v>
       </c>
       <c r="E2">
-        <v>0.9636602339836698</v>
+        <v>0.9636602339836696</v>
       </c>
       <c r="F2">
         <v>0.9700901890992689</v>
@@ -445,7 +445,7 @@
         <v>1.019526193581544</v>
       </c>
       <c r="L2">
-        <v>0.9756501800953605</v>
+        <v>0.9756501800953603</v>
       </c>
       <c r="M2">
         <v>0.9819825641666569</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9948334540158916</v>
+        <v>0.994833454015891</v>
       </c>
       <c r="D3">
-        <v>1.013948798698126</v>
+        <v>1.013948798698125</v>
       </c>
       <c r="E3">
-        <v>0.9702411658316104</v>
+        <v>0.97024116583161</v>
       </c>
       <c r="F3">
-        <v>0.9786798124922348</v>
+        <v>0.9786798124922342</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042083875631258</v>
+        <v>1.042083875631257</v>
       </c>
       <c r="J3">
         <v>1.015465962102106</v>
       </c>
       <c r="K3">
-        <v>1.024406259564811</v>
+        <v>1.02440625956481</v>
       </c>
       <c r="L3">
-        <v>0.9812695298741855</v>
+        <v>0.9812695298741851</v>
       </c>
       <c r="M3">
-        <v>0.9895929585502026</v>
+        <v>0.9895929585502019</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9995220473162274</v>
+        <v>0.999522047316225</v>
       </c>
       <c r="D4">
-        <v>1.017559553857863</v>
+        <v>1.01755955385786</v>
       </c>
       <c r="E4">
-        <v>0.9743738444905297</v>
+        <v>0.9743738444905289</v>
       </c>
       <c r="F4">
-        <v>0.9840637688591436</v>
+        <v>0.9840637688591416</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043728577025425</v>
+        <v>1.043728577025423</v>
       </c>
       <c r="J4">
-        <v>1.018937987079136</v>
+        <v>1.018937987079133</v>
       </c>
       <c r="K4">
-        <v>1.027450571026181</v>
+        <v>1.027450571026179</v>
       </c>
       <c r="L4">
-        <v>0.9847917213020989</v>
+        <v>0.9847917213020979</v>
       </c>
       <c r="M4">
-        <v>0.9943584131170963</v>
+        <v>0.9943584131170942</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,10 +541,10 @@
         <v>1.019049855955257</v>
       </c>
       <c r="E5">
-        <v>0.9760829505270318</v>
+        <v>0.9760829505270315</v>
       </c>
       <c r="F5">
-        <v>0.98628811473833</v>
+        <v>0.9862881147383296</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>1.028704700573898</v>
       </c>
       <c r="L5">
-        <v>0.9862467754109534</v>
+        <v>0.9862467754109532</v>
       </c>
       <c r="M5">
-        <v>0.9963260617240438</v>
+        <v>0.9963260617240434</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -579,10 +579,10 @@
         <v>1.019298506452013</v>
       </c>
       <c r="E6">
-        <v>0.9763683084782732</v>
+        <v>0.9763683084782726</v>
       </c>
       <c r="F6">
-        <v>0.986659372573564</v>
+        <v>0.9866593725735633</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -594,13 +594,13 @@
         <v>1.020607834673439</v>
       </c>
       <c r="K6">
-        <v>1.028913807243561</v>
+        <v>1.02891380724356</v>
       </c>
       <c r="L6">
-        <v>0.9864896234664601</v>
+        <v>0.9864896234664595</v>
       </c>
       <c r="M6">
-        <v>0.9966544055146291</v>
+        <v>0.9966544055146285</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9995480411531792</v>
+        <v>0.9995480411531802</v>
       </c>
       <c r="D7">
-        <v>1.017579574005959</v>
+        <v>1.01757957400596</v>
       </c>
       <c r="E7">
-        <v>0.9743967904756828</v>
+        <v>0.9743967904756834</v>
       </c>
       <c r="F7">
-        <v>0.984093640921971</v>
+        <v>0.9840936409219719</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.043737657753292</v>
       </c>
       <c r="J7">
-        <v>1.01895722022808</v>
+        <v>1.018957220228082</v>
       </c>
       <c r="K7">
-        <v>1.027467427922387</v>
+        <v>1.027467427922388</v>
       </c>
       <c r="L7">
-        <v>0.9848112626917895</v>
+        <v>0.9848112626917902</v>
       </c>
       <c r="M7">
-        <v>0.9943848425042984</v>
+        <v>0.9943848425042993</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.98990679963402</v>
+        <v>0.9899067996340183</v>
       </c>
       <c r="D8">
-        <v>1.010155696272399</v>
+        <v>1.010155696272397</v>
       </c>
       <c r="E8">
-        <v>0.9659114406105981</v>
+        <v>0.9659114406105979</v>
       </c>
       <c r="F8">
-        <v>0.9730307945279651</v>
+        <v>0.973030794527964</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040341957356799</v>
+        <v>1.040341957356798</v>
       </c>
       <c r="J8">
-        <v>1.011811891143869</v>
+        <v>1.011811891143868</v>
       </c>
       <c r="K8">
-        <v>1.021199837238165</v>
+        <v>1.021199837238163</v>
       </c>
       <c r="L8">
-        <v>0.9775738569026059</v>
+        <v>0.9775738569026057</v>
       </c>
       <c r="M8">
-        <v>0.9845889125583074</v>
+        <v>0.9845889125583065</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9715746287489133</v>
+        <v>0.9715746287489128</v>
       </c>
       <c r="D9">
-        <v>0.9960562306331355</v>
+        <v>0.9960562306331352</v>
       </c>
       <c r="E9">
-        <v>0.9499063042296504</v>
+        <v>0.9499063042296503</v>
       </c>
       <c r="F9">
-        <v>0.9520711315798147</v>
+        <v>0.9520711315798138</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.033755597235283</v>
       </c>
       <c r="J9">
-        <v>0.9981726960933156</v>
+        <v>0.9981726960933152</v>
       </c>
       <c r="K9">
         <v>1.00921361845719</v>
       </c>
       <c r="L9">
-        <v>0.9638680025195481</v>
+        <v>0.963868002519548</v>
       </c>
       <c r="M9">
-        <v>0.9659928294396292</v>
+        <v>0.9659928294396287</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9582672320844045</v>
+        <v>0.9582672320844033</v>
       </c>
       <c r="D10">
-        <v>0.9858425213449368</v>
+        <v>0.9858425213449354</v>
       </c>
       <c r="E10">
-        <v>0.9383832831902582</v>
+        <v>0.9383832831902581</v>
       </c>
       <c r="F10">
-        <v>0.9369003250500645</v>
+        <v>0.936900325050064</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028891221416155</v>
+        <v>1.028891221416154</v>
       </c>
       <c r="J10">
-        <v>0.9882403712829675</v>
+        <v>0.9882403712829665</v>
       </c>
       <c r="K10">
-        <v>1.000472186433617</v>
+        <v>1.000472186433616</v>
       </c>
       <c r="L10">
-        <v>0.9539619096855145</v>
+        <v>0.9539619096855144</v>
       </c>
       <c r="M10">
-        <v>0.9525106579559988</v>
+        <v>0.9525106579559983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9521981162476315</v>
+        <v>0.9521981162476312</v>
       </c>
       <c r="D11">
-        <v>0.9811919356852996</v>
+        <v>0.9811919356852993</v>
       </c>
       <c r="E11">
-        <v>0.9331524611159353</v>
+        <v>0.9331524611159345</v>
       </c>
       <c r="F11">
-        <v>0.9299896835971121</v>
+        <v>0.9299896835971115</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.026654255506639</v>
       </c>
       <c r="J11">
-        <v>0.9837041857505782</v>
+        <v>0.9837041857505778</v>
       </c>
       <c r="K11">
-        <v>0.9964774798619019</v>
+        <v>0.9964774798619018</v>
       </c>
       <c r="L11">
-        <v>0.9494556254027118</v>
+        <v>0.9494556254027111</v>
       </c>
       <c r="M11">
-        <v>0.9463647733240915</v>
+        <v>0.946364773324091</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9498926757643725</v>
+        <v>0.949892675764373</v>
       </c>
       <c r="D12">
-        <v>0.9794267341841925</v>
+        <v>0.9794267341841928</v>
       </c>
       <c r="E12">
-        <v>0.9311693248491821</v>
+        <v>0.9311693248491822</v>
       </c>
       <c r="F12">
-        <v>0.9273656122469983</v>
+        <v>0.9273656122469985</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025801865832226</v>
+        <v>1.025801865832227</v>
       </c>
       <c r="J12">
-        <v>0.9819802109254772</v>
+        <v>0.9819802109254775</v>
       </c>
       <c r="K12">
-        <v>0.9949589924499787</v>
+        <v>0.994958992449979</v>
       </c>
       <c r="L12">
-        <v>0.9477457268705133</v>
+        <v>0.9477457268705134</v>
       </c>
       <c r="M12">
-        <v>0.9440305050509149</v>
+        <v>0.9440305050509151</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -842,25 +842,25 @@
         <v>0.950389601609984</v>
       </c>
       <c r="D13">
-        <v>0.9798071472635029</v>
+        <v>0.9798071472635027</v>
       </c>
       <c r="E13">
-        <v>0.9315966020109281</v>
+        <v>0.931596602010928</v>
       </c>
       <c r="F13">
-        <v>0.9279311745049377</v>
+        <v>0.9279311745049378</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025985711197253</v>
+        <v>1.025985711197252</v>
       </c>
       <c r="J13">
-        <v>0.9823518407651586</v>
+        <v>0.9823518407651585</v>
       </c>
       <c r="K13">
-        <v>0.9952863387911977</v>
+        <v>0.9952863387911974</v>
       </c>
       <c r="L13">
         <v>0.9481141996228165</v>
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9520086218780568</v>
+        <v>0.952008621878056</v>
       </c>
       <c r="D14">
-        <v>0.9810468162565774</v>
+        <v>0.9810468162565764</v>
       </c>
       <c r="E14">
-        <v>0.9329893788877126</v>
+        <v>0.9329893788877122</v>
       </c>
       <c r="F14">
-        <v>0.9297739799522564</v>
+        <v>0.9297739799522556</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.02658424663002</v>
       </c>
       <c r="J14">
-        <v>0.9835625009339072</v>
+        <v>0.9835625009339064</v>
       </c>
       <c r="K14">
-        <v>0.9963526887495425</v>
+        <v>0.9963526887495415</v>
       </c>
       <c r="L14">
-        <v>0.9493150423830211</v>
+        <v>0.9493150423830207</v>
       </c>
       <c r="M14">
-        <v>0.946172903392187</v>
+        <v>0.9461729033921864</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9529992199703876</v>
+        <v>0.9529992199703881</v>
       </c>
       <c r="D15">
-        <v>0.9818054985008857</v>
+        <v>0.9818054985008866</v>
       </c>
       <c r="E15">
-        <v>0.9338420633132009</v>
+        <v>0.9338420633132012</v>
       </c>
       <c r="F15">
-        <v>0.9309016298995831</v>
+        <v>0.9309016298995837</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.02695011746021</v>
       </c>
       <c r="J15">
-        <v>0.9843031371053399</v>
+        <v>0.9843031371053405</v>
       </c>
       <c r="K15">
-        <v>0.9970050037630531</v>
+        <v>0.997005003763054</v>
       </c>
       <c r="L15">
-        <v>0.9500500292570271</v>
+        <v>0.9500500292570273</v>
       </c>
       <c r="M15">
-        <v>0.9471759328043143</v>
+        <v>0.9471759328043147</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,7 +953,7 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.95866314411058</v>
+        <v>0.9586631441105797</v>
       </c>
       <c r="D16">
         <v>0.9861460739000558</v>
@@ -962,7 +962,7 @@
         <v>0.9387250302914369</v>
       </c>
       <c r="F16">
-        <v>0.9373512874454151</v>
+        <v>0.9373512874454148</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.029036776919759</v>
       </c>
       <c r="J16">
-        <v>0.9885361626487543</v>
+        <v>0.9885361626487542</v>
       </c>
       <c r="K16">
         <v>1.000732624760876</v>
       </c>
       <c r="L16">
-        <v>0.9542561222778636</v>
+        <v>0.9542561222778635</v>
       </c>
       <c r="M16">
-        <v>0.9529116299405389</v>
+        <v>0.9529116299405387</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9621305115386297</v>
+        <v>0.9621305115386305</v>
       </c>
       <c r="D17">
-        <v>0.9888054435784164</v>
+        <v>0.988805443578417</v>
       </c>
       <c r="E17">
-        <v>0.9417207968713293</v>
+        <v>0.9417207968713294</v>
       </c>
       <c r="F17">
-        <v>0.9413016947564079</v>
+        <v>0.9413016947564085</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.030309480098503</v>
       </c>
       <c r="J17">
-        <v>0.991125980557562</v>
+        <v>0.9911259805575626</v>
       </c>
       <c r="K17">
-        <v>1.003012642865653</v>
+        <v>1.003012642865654</v>
       </c>
       <c r="L17">
-        <v>0.9568341309884417</v>
+        <v>0.9568341309884421</v>
       </c>
       <c r="M17">
-        <v>0.9564236315684302</v>
+        <v>0.9564236315684309</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,13 +1029,13 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9641237289252977</v>
+        <v>0.9641237289252982</v>
       </c>
       <c r="D18">
-        <v>0.9903348753410732</v>
+        <v>0.9903348753410738</v>
       </c>
       <c r="E18">
-        <v>0.9434451912966906</v>
+        <v>0.9434451912966905</v>
       </c>
       <c r="F18">
         <v>0.9435733813980968</v>
@@ -1047,13 +1047,13 @@
         <v>1.031039358353718</v>
       </c>
       <c r="J18">
-        <v>0.9926141374029298</v>
+        <v>0.99261413740293</v>
       </c>
       <c r="K18">
-        <v>1.004322553370174</v>
+        <v>1.004322553370175</v>
       </c>
       <c r="L18">
-        <v>0.9583171748925898</v>
+        <v>0.9583171748925893</v>
       </c>
       <c r="M18">
         <v>0.9584427897199714</v>
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.964798544411157</v>
+        <v>0.9647985444111586</v>
       </c>
       <c r="D19">
-        <v>0.990852784023017</v>
+        <v>0.9908527840230185</v>
       </c>
       <c r="E19">
-        <v>0.9440293763485846</v>
+        <v>0.9440293763485853</v>
       </c>
       <c r="F19">
-        <v>0.9443426147055117</v>
+        <v>0.9443426147055126</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03128616497365</v>
+        <v>1.031286164973651</v>
       </c>
       <c r="J19">
-        <v>0.9931178566278519</v>
+        <v>0.9931178566278532</v>
       </c>
       <c r="K19">
-        <v>1.00476589817467</v>
+        <v>1.004765898174671</v>
       </c>
       <c r="L19">
-        <v>0.9588194467391443</v>
+        <v>0.9588194467391449</v>
       </c>
       <c r="M19">
-        <v>0.9591264384654926</v>
+        <v>0.9591264384654936</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9617615538248241</v>
+        <v>0.9617615538248235</v>
       </c>
       <c r="D20">
-        <v>0.9885223901164977</v>
+        <v>0.9885223901164972</v>
       </c>
       <c r="E20">
-        <v>0.9414017834748307</v>
+        <v>0.9414017834748306</v>
       </c>
       <c r="F20">
-        <v>0.9408812563062826</v>
+        <v>0.9408812563062822</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.030174233206344</v>
       </c>
       <c r="J20">
-        <v>0.9908504634081436</v>
+        <v>0.9908504634081432</v>
       </c>
       <c r="K20">
-        <v>1.002770107179699</v>
+        <v>1.002770107179698</v>
       </c>
       <c r="L20">
-        <v>0.9565596960091192</v>
+        <v>0.9565596960091191</v>
       </c>
       <c r="M20">
-        <v>0.9560498956820546</v>
+        <v>0.956049895682054</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9515333153563651</v>
+        <v>0.9515333153563639</v>
       </c>
       <c r="D21">
-        <v>0.9806828381154343</v>
+        <v>0.9806828381154332</v>
       </c>
       <c r="E21">
-        <v>0.9325803844244603</v>
+        <v>0.9325803844244605</v>
       </c>
       <c r="F21">
-        <v>0.9292329488364474</v>
+        <v>0.9292329488364462</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026408602130497</v>
+        <v>1.026408602130496</v>
       </c>
       <c r="J21">
-        <v>0.983207101473022</v>
+        <v>0.983207101473021</v>
       </c>
       <c r="K21">
-        <v>0.9960396605095769</v>
+        <v>0.996039660509576</v>
       </c>
       <c r="L21">
-        <v>0.9489624502953001</v>
+        <v>0.9489624502952999</v>
       </c>
       <c r="M21">
-        <v>0.945691643240225</v>
+        <v>0.945691643240224</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9448036895246515</v>
+        <v>0.9448036895246513</v>
       </c>
       <c r="D22">
-        <v>0.9755331355192446</v>
+        <v>0.9755331355192444</v>
       </c>
       <c r="E22">
-        <v>0.9267991630374272</v>
+        <v>0.9267991630374269</v>
       </c>
       <c r="F22">
-        <v>0.9215749258576692</v>
+        <v>0.921574925857669</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,13 +1199,13 @@
         <v>1.023915581854906</v>
       </c>
       <c r="J22">
-        <v>0.9781733267476642</v>
+        <v>0.9781733267476641</v>
       </c>
       <c r="K22">
-        <v>0.9916053830202775</v>
+        <v>0.9916053830202772</v>
       </c>
       <c r="L22">
-        <v>0.9439749672173755</v>
+        <v>0.9439749672173753</v>
       </c>
       <c r="M22">
         <v>0.9388783649864549</v>
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.948401386060603</v>
+        <v>0.9484013860606044</v>
       </c>
       <c r="D23">
-        <v>0.9782853276495358</v>
+        <v>0.9782853276495374</v>
       </c>
       <c r="E23">
-        <v>0.92988763569171</v>
+        <v>0.9298876356917107</v>
       </c>
       <c r="F23">
-        <v>0.9256684755842999</v>
+        <v>0.9256684755843013</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.025249762983625</v>
       </c>
       <c r="J23">
-        <v>0.980864824718775</v>
+        <v>0.9808648247187763</v>
       </c>
       <c r="K23">
-        <v>0.9939764768392247</v>
+        <v>0.9939764768392263</v>
       </c>
       <c r="L23">
-        <v>0.9466402157021104</v>
+        <v>0.946640215702111</v>
       </c>
       <c r="M23">
-        <v>0.9425206468851814</v>
+        <v>0.9425206468851829</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9619283599242117</v>
+        <v>0.9619283599242118</v>
       </c>
       <c r="D24">
         <v>0.9886503566958331</v>
       </c>
       <c r="E24">
-        <v>0.9415460026393745</v>
+        <v>0.941546002639375</v>
       </c>
       <c r="F24">
-        <v>0.9410713344079619</v>
+        <v>0.9410713344079623</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1281,10 +1281,10 @@
         <v>1.002879760142318</v>
       </c>
       <c r="L24">
-        <v>0.9566837649674181</v>
+        <v>0.9566837649674188</v>
       </c>
       <c r="M24">
-        <v>0.9562188611105175</v>
+        <v>0.956218861110518</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9764904771251779</v>
+        <v>0.9764904771251773</v>
       </c>
       <c r="D25">
-        <v>0.9998342344125525</v>
+        <v>0.9998342344125518</v>
       </c>
       <c r="E25">
-        <v>0.9541825899485472</v>
+        <v>0.9541825899485473</v>
       </c>
       <c r="F25">
-        <v>0.9576835263349112</v>
+        <v>0.9576835263349109</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.035536243664535</v>
       </c>
       <c r="J25">
-        <v>1.001835786395909</v>
+        <v>1.001835786395908</v>
       </c>
       <c r="K25">
         <v>1.012435124223291</v>
       </c>
       <c r="L25">
-        <v>0.9675363984267698</v>
+        <v>0.9675363984267696</v>
       </c>
       <c r="M25">
-        <v>0.9709763063917418</v>
+        <v>0.9709763063917417</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9873395419347033</v>
+        <v>0.9873516598327666</v>
       </c>
       <c r="D2">
-        <v>1.008179650096732</v>
+        <v>1.008189511287099</v>
       </c>
       <c r="E2">
-        <v>0.9636602339836696</v>
+        <v>0.9636707266854851</v>
       </c>
       <c r="F2">
-        <v>0.9700901890992689</v>
+        <v>0.9701014173479304</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039429081090563</v>
+        <v>1.039434603602456</v>
       </c>
       <c r="J2">
-        <v>1.009905633596903</v>
+        <v>1.009917376103744</v>
       </c>
       <c r="K2">
-        <v>1.019526193581544</v>
+        <v>1.019535920184094</v>
       </c>
       <c r="L2">
-        <v>0.9756501800953603</v>
+        <v>0.9756605122232596</v>
       </c>
       <c r="M2">
-        <v>0.9819825641666569</v>
+        <v>0.9819936234731376</v>
+      </c>
+      <c r="N2">
+        <v>1.008290902359812</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.994833454015891</v>
+        <v>0.9948406696644313</v>
       </c>
       <c r="D3">
-        <v>1.013948798698125</v>
+        <v>1.013954680223834</v>
       </c>
       <c r="E3">
-        <v>0.97024116583161</v>
+        <v>0.9702491859076121</v>
       </c>
       <c r="F3">
-        <v>0.9786798124922342</v>
+        <v>0.9786871206630848</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042083875631257</v>
+        <v>1.042087173761286</v>
       </c>
       <c r="J3">
-        <v>1.015465962102106</v>
+        <v>1.01547297824993</v>
       </c>
       <c r="K3">
-        <v>1.02440625956481</v>
+        <v>1.024412068391946</v>
       </c>
       <c r="L3">
-        <v>0.9812695298741851</v>
+        <v>0.9812774392478482</v>
       </c>
       <c r="M3">
-        <v>0.9895929585502019</v>
+        <v>0.9896001680210619</v>
+      </c>
+      <c r="N3">
+        <v>1.012148880471777</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.999522047316225</v>
+        <v>0.9995262518407596</v>
       </c>
       <c r="D4">
-        <v>1.01755955385786</v>
+        <v>1.017562984396547</v>
       </c>
       <c r="E4">
-        <v>0.9743738444905289</v>
+        <v>0.9743803686694233</v>
       </c>
       <c r="F4">
-        <v>0.9840637688591416</v>
+        <v>0.984068687477012</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043728577025423</v>
+        <v>1.043730502349863</v>
       </c>
       <c r="J4">
-        <v>1.018937987079133</v>
+        <v>1.018942083912956</v>
       </c>
       <c r="K4">
-        <v>1.027450571026179</v>
+        <v>1.027453961908711</v>
       </c>
       <c r="L4">
-        <v>0.9847917213020979</v>
+        <v>0.9847981614779812</v>
       </c>
       <c r="M4">
-        <v>0.9943584131170942</v>
+        <v>0.994363269950614</v>
+      </c>
+      <c r="N4">
+        <v>1.014555916436434</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001456974961614</v>
+        <v>1.001459948544087</v>
       </c>
       <c r="D5">
-        <v>1.019049855955257</v>
+        <v>1.019052283123831</v>
       </c>
       <c r="E5">
-        <v>0.9760829505270315</v>
+        <v>0.976088868526976</v>
       </c>
       <c r="F5">
-        <v>0.9862881147383296</v>
+        <v>0.9862920605652409</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04440334773895</v>
+        <v>1.044404710417509</v>
       </c>
       <c r="J5">
-        <v>1.020369158418093</v>
+        <v>1.020372058303531</v>
       </c>
       <c r="K5">
-        <v>1.028704700573898</v>
+        <v>1.028707100484454</v>
       </c>
       <c r="L5">
-        <v>0.9862467754109532</v>
+        <v>0.9862526194634286</v>
       </c>
       <c r="M5">
-        <v>0.9963260617240434</v>
+        <v>0.9963299595064264</v>
+      </c>
+      <c r="N5">
+        <v>1.015547605409622</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001779799410865</v>
+        <v>1.001782568264989</v>
       </c>
       <c r="D6">
-        <v>1.019298506452013</v>
+        <v>1.0193007666629</v>
       </c>
       <c r="E6">
-        <v>0.9763683084782726</v>
+        <v>0.9763741259698641</v>
       </c>
       <c r="F6">
-        <v>0.9866593725735633</v>
+        <v>0.9866631568369919</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044515690801554</v>
+        <v>1.044516959819864</v>
       </c>
       <c r="J6">
-        <v>1.020607834673439</v>
+        <v>1.020610535285818</v>
       </c>
       <c r="K6">
-        <v>1.02891380724356</v>
+        <v>1.028916042195491</v>
       </c>
       <c r="L6">
-        <v>0.9864896234664595</v>
+        <v>0.9864953686347671</v>
       </c>
       <c r="M6">
-        <v>0.9966544055146285</v>
+        <v>0.9966581439430706</v>
+      </c>
+      <c r="N6">
+        <v>1.015712959826108</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9995480411531802</v>
+        <v>0.9995522290969563</v>
       </c>
       <c r="D7">
-        <v>1.01757957400596</v>
+        <v>1.017582991034686</v>
       </c>
       <c r="E7">
-        <v>0.9743967904756834</v>
+        <v>0.9744033064683194</v>
       </c>
       <c r="F7">
-        <v>0.9840936409219719</v>
+        <v>0.9840985464206766</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043737657753292</v>
+        <v>1.043739575504503</v>
       </c>
       <c r="J7">
-        <v>1.018957220228082</v>
+        <v>1.018961300952653</v>
       </c>
       <c r="K7">
-        <v>1.027467427922388</v>
+        <v>1.027470805466264</v>
       </c>
       <c r="L7">
-        <v>0.9848112626917902</v>
+        <v>0.9848176948201701</v>
       </c>
       <c r="M7">
-        <v>0.9943848425042993</v>
+        <v>0.9943896864089198</v>
+      </c>
+      <c r="N7">
+        <v>1.014569245466163</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9899067996340183</v>
+        <v>0.9899172251491989</v>
       </c>
       <c r="D8">
-        <v>1.010155696272397</v>
+        <v>1.01016418508776</v>
       </c>
       <c r="E8">
-        <v>0.9659114406105979</v>
+        <v>0.9659210747027583</v>
       </c>
       <c r="F8">
-        <v>0.973030794527964</v>
+        <v>0.9730406653256599</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040341957356798</v>
+        <v>1.040346713428707</v>
       </c>
       <c r="J8">
-        <v>1.011811891143868</v>
+        <v>1.011822005698774</v>
       </c>
       <c r="K8">
-        <v>1.021199837238163</v>
+        <v>1.021208213950393</v>
       </c>
       <c r="L8">
-        <v>0.9775738569026057</v>
+        <v>0.9775833485357834</v>
       </c>
       <c r="M8">
-        <v>0.9845889125583065</v>
+        <v>0.9845986400925835</v>
+      </c>
+      <c r="N8">
+        <v>1.009613953010025</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9715746287489128</v>
+        <v>0.9715974688946647</v>
       </c>
       <c r="D9">
-        <v>0.9960562306331352</v>
+        <v>0.9960747488533964</v>
       </c>
       <c r="E9">
-        <v>0.9499063042296503</v>
+        <v>0.9499223475232225</v>
       </c>
       <c r="F9">
-        <v>0.9520711315798138</v>
+        <v>0.9520910599271724</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033755597235283</v>
+        <v>1.033765940131799</v>
       </c>
       <c r="J9">
-        <v>0.9981726960933152</v>
+        <v>0.9981946616350866</v>
       </c>
       <c r="K9">
-        <v>1.00921361845719</v>
+        <v>1.00923183317288</v>
       </c>
       <c r="L9">
-        <v>0.963868002519548</v>
+        <v>0.9638837485000121</v>
       </c>
       <c r="M9">
-        <v>0.9659928294396287</v>
+        <v>0.9660123906635308</v>
+      </c>
+      <c r="N9">
+        <v>1.00013954127044</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9582672320844033</v>
+        <v>0.9582996294175571</v>
       </c>
       <c r="D10">
-        <v>0.9858425213449354</v>
+        <v>0.9858686995902063</v>
       </c>
       <c r="E10">
-        <v>0.9383832831902581</v>
+        <v>0.9384044155901813</v>
       </c>
       <c r="F10">
-        <v>0.936900325050064</v>
+        <v>0.9369281508801981</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028891221416154</v>
+        <v>1.028905810510651</v>
       </c>
       <c r="J10">
-        <v>0.9882403712829665</v>
+        <v>0.988271317362861</v>
       </c>
       <c r="K10">
-        <v>1.000472186433616</v>
+        <v>1.000497874148388</v>
       </c>
       <c r="L10">
-        <v>0.9539619096855144</v>
+        <v>0.953982591223395</v>
       </c>
       <c r="M10">
-        <v>0.9525106579559983</v>
+        <v>0.9525378876305909</v>
+      </c>
+      <c r="N10">
+        <v>0.993230587089864</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9521981162476312</v>
+        <v>0.952235050178439</v>
       </c>
       <c r="D11">
-        <v>0.9811919356852993</v>
+        <v>0.9812217310350263</v>
       </c>
       <c r="E11">
-        <v>0.9331524611159345</v>
+        <v>0.933176049890265</v>
       </c>
       <c r="F11">
-        <v>0.9299896835971115</v>
+        <v>0.9300213044545901</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026654255506639</v>
+        <v>1.026670843991884</v>
       </c>
       <c r="J11">
-        <v>0.9837041857505778</v>
+        <v>0.9837393519195554</v>
       </c>
       <c r="K11">
-        <v>0.9964774798619018</v>
+        <v>0.9965066846726811</v>
       </c>
       <c r="L11">
-        <v>0.9494556254027111</v>
+        <v>0.9494786801826728</v>
       </c>
       <c r="M11">
-        <v>0.946364773324091</v>
+        <v>0.9463956718515361</v>
+      </c>
+      <c r="N11">
+        <v>0.9900732484239078</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.949892675764373</v>
+        <v>0.9499313648508521</v>
       </c>
       <c r="D12">
-        <v>0.9794267341841928</v>
+        <v>0.9794579256506971</v>
       </c>
       <c r="E12">
-        <v>0.9311693248491822</v>
+        <v>0.9311938704419499</v>
       </c>
       <c r="F12">
-        <v>0.9273656122469985</v>
+        <v>0.9273987092661977</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025801865832227</v>
+        <v>1.025819225109861</v>
       </c>
       <c r="J12">
-        <v>0.9819802109254775</v>
+        <v>0.9820170025113794</v>
       </c>
       <c r="K12">
-        <v>0.994958992449979</v>
+        <v>0.9949895528352648</v>
       </c>
       <c r="L12">
-        <v>0.9477457268705134</v>
+        <v>0.9477697045658962</v>
       </c>
       <c r="M12">
-        <v>0.9440305050509151</v>
+        <v>0.9440628278988721</v>
+      </c>
+      <c r="N12">
+        <v>0.9888730397112571</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.950389601609984</v>
+        <v>0.95042791085064</v>
       </c>
       <c r="D13">
-        <v>0.9798071472635027</v>
+        <v>0.9798380367426737</v>
       </c>
       <c r="E13">
-        <v>0.931596602010928</v>
+        <v>0.9316209402340933</v>
       </c>
       <c r="F13">
-        <v>0.9279311745049378</v>
+        <v>0.9279639516844571</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025985711197252</v>
+        <v>1.026002903791321</v>
       </c>
       <c r="J13">
-        <v>0.9823518407651585</v>
+        <v>0.9823882809254589</v>
       </c>
       <c r="K13">
-        <v>0.9952863387911974</v>
+        <v>0.9953166060491346</v>
       </c>
       <c r="L13">
-        <v>0.9481141996228165</v>
+        <v>0.9481379773675281</v>
       </c>
       <c r="M13">
-        <v>0.9445336314438024</v>
+        <v>0.9445656458146513</v>
+      </c>
+      <c r="N13">
+        <v>0.9891317749260626</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.952008621878056</v>
+        <v>0.9520456993942725</v>
       </c>
       <c r="D14">
-        <v>0.9810468162565764</v>
+        <v>0.9810767258887468</v>
       </c>
       <c r="E14">
-        <v>0.9329893788877122</v>
+        <v>0.9330130458046169</v>
       </c>
       <c r="F14">
-        <v>0.9297739799522556</v>
+        <v>0.9298057214059547</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02658424663002</v>
+        <v>1.026600898229372</v>
       </c>
       <c r="J14">
-        <v>0.9835625009339064</v>
+        <v>0.9835978002265764</v>
       </c>
       <c r="K14">
-        <v>0.9963526887495415</v>
+        <v>0.996382004564304</v>
       </c>
       <c r="L14">
-        <v>0.9493150423830207</v>
+        <v>0.9493381725682858</v>
       </c>
       <c r="M14">
-        <v>0.9461729033921864</v>
+        <v>0.9462039183382794</v>
+      </c>
+      <c r="N14">
+        <v>0.9899746144679692</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9529992199703881</v>
+        <v>0.9530355482078271</v>
       </c>
       <c r="D15">
-        <v>0.9818054985008866</v>
+        <v>0.9818348116317315</v>
       </c>
       <c r="E15">
-        <v>0.9338420633132012</v>
+        <v>0.9338653227179627</v>
       </c>
       <c r="F15">
-        <v>0.9309016298995837</v>
+        <v>0.930932742364768</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02695011746021</v>
+        <v>1.026966439595484</v>
       </c>
       <c r="J15">
-        <v>0.9843031371053405</v>
+        <v>0.9843377414134057</v>
       </c>
       <c r="K15">
-        <v>0.997005003763054</v>
+        <v>0.9970337401091436</v>
       </c>
       <c r="L15">
-        <v>0.9500500292570273</v>
+        <v>0.9500727661428621</v>
       </c>
       <c r="M15">
-        <v>0.9471759328043147</v>
+        <v>0.947206340437531</v>
+      </c>
+      <c r="N15">
+        <v>0.9904901981889019</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9586631441105797</v>
+        <v>0.958695249580041</v>
       </c>
       <c r="D16">
-        <v>0.9861460739000558</v>
+        <v>0.9861720190177665</v>
       </c>
       <c r="E16">
-        <v>0.9387250302914369</v>
+        <v>0.9387460055133782</v>
       </c>
       <c r="F16">
-        <v>0.9373512874454148</v>
+        <v>0.9373788701345765</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029036776919759</v>
+        <v>1.029051237029435</v>
       </c>
       <c r="J16">
-        <v>0.9885361626487542</v>
+        <v>0.9885668362918887</v>
       </c>
       <c r="K16">
-        <v>1.000732624760876</v>
+        <v>1.000758085541294</v>
       </c>
       <c r="L16">
-        <v>0.9542561222778635</v>
+        <v>0.954276651762368</v>
       </c>
       <c r="M16">
-        <v>0.9529116299405387</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9529386242059122</v>
+      </c>
+      <c r="N16">
+        <v>0.9934364300002899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9621305115386305</v>
+        <v>0.9621600813728461</v>
       </c>
       <c r="D17">
-        <v>0.988805443578417</v>
+        <v>0.9888293612167822</v>
       </c>
       <c r="E17">
-        <v>0.9417207968713294</v>
+        <v>0.9417404110809571</v>
       </c>
       <c r="F17">
-        <v>0.9413016947564085</v>
+        <v>0.9413271702803131</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030309480098503</v>
+        <v>1.030322817810069</v>
       </c>
       <c r="J17">
-        <v>0.9911259805575626</v>
+        <v>0.9911542825492673</v>
       </c>
       <c r="K17">
-        <v>1.003012642865654</v>
+        <v>1.003036128719197</v>
       </c>
       <c r="L17">
-        <v>0.9568341309884421</v>
+        <v>0.9568533428346355</v>
       </c>
       <c r="M17">
-        <v>0.9564236315684309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9564485838807797</v>
+      </c>
+      <c r="N17">
+        <v>0.9952384828484057</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9641237289252982</v>
+        <v>0.9641518574000855</v>
       </c>
       <c r="D18">
-        <v>0.9903348753410738</v>
+        <v>0.9903576387792933</v>
       </c>
       <c r="E18">
-        <v>0.9434451912966905</v>
+        <v>0.94346403553721</v>
       </c>
       <c r="F18">
-        <v>0.9435733813980968</v>
+        <v>0.9435976632753538</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031039358353718</v>
+        <v>1.031052056592683</v>
       </c>
       <c r="J18">
-        <v>0.99261413740293</v>
+        <v>0.9926410874054094</v>
       </c>
       <c r="K18">
-        <v>1.004322553370175</v>
+        <v>1.004344913882645</v>
       </c>
       <c r="L18">
-        <v>0.9583171748925893</v>
+        <v>0.9583356405041457</v>
       </c>
       <c r="M18">
-        <v>0.9584427897199714</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.95846658389038</v>
+      </c>
+      <c r="N18">
+        <v>0.9962737907141869</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9647985444111586</v>
+        <v>0.964826187526552</v>
       </c>
       <c r="D19">
-        <v>0.9908527840230185</v>
+        <v>0.9908751585229232</v>
       </c>
       <c r="E19">
-        <v>0.9440293763485853</v>
+        <v>0.9440479619275521</v>
       </c>
       <c r="F19">
-        <v>0.9443426147055126</v>
+        <v>0.9443664953169605</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031286164973651</v>
+        <v>1.031298647639817</v>
       </c>
       <c r="J19">
-        <v>0.9931178566278532</v>
+        <v>0.9931443507358156</v>
       </c>
       <c r="K19">
-        <v>1.004765898174671</v>
+        <v>1.004787879299217</v>
       </c>
       <c r="L19">
-        <v>0.9588194467391449</v>
+        <v>0.9588376615305363</v>
       </c>
       <c r="M19">
-        <v>0.9591264384654936</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.959149843070957</v>
+      </c>
+      <c r="N19">
+        <v>0.9966241950605956</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9617615538248235</v>
+        <v>0.961791391749021</v>
       </c>
       <c r="D20">
-        <v>0.9885223901164972</v>
+        <v>0.9885465222982652</v>
       </c>
       <c r="E20">
-        <v>0.9414017834748306</v>
+        <v>0.9414215411954093</v>
       </c>
       <c r="F20">
-        <v>0.9408812563062822</v>
+        <v>0.9409069541785843</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030174233206344</v>
+        <v>1.030187689741902</v>
       </c>
       <c r="J20">
-        <v>0.9908504634081432</v>
+        <v>0.9908790165592032</v>
       </c>
       <c r="K20">
-        <v>1.002770107179698</v>
+        <v>1.002793802127323</v>
       </c>
       <c r="L20">
-        <v>0.9565596960091191</v>
+        <v>0.9565790468778996</v>
       </c>
       <c r="M20">
-        <v>0.956049895682054</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9560750636139914</v>
+      </c>
+      <c r="N20">
+        <v>0.9950467909140676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9515333153563639</v>
+        <v>0.951570753557422</v>
       </c>
       <c r="D21">
-        <v>0.9806828381154332</v>
+        <v>0.9807130347693587</v>
       </c>
       <c r="E21">
-        <v>0.9325803844244605</v>
+        <v>0.9326042477394584</v>
       </c>
       <c r="F21">
-        <v>0.9292329488364462</v>
+        <v>0.9292649933564509</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026408602130496</v>
+        <v>1.026425412226642</v>
       </c>
       <c r="J21">
-        <v>0.983207101473021</v>
+        <v>0.9832427350512509</v>
       </c>
       <c r="K21">
-        <v>0.996039660509576</v>
+        <v>0.9960692550804876</v>
       </c>
       <c r="L21">
-        <v>0.9489624502952999</v>
+        <v>0.948985769974122</v>
       </c>
       <c r="M21">
-        <v>0.945691643240224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9457229507087488</v>
+      </c>
+      <c r="N21">
+        <v>0.9897271988248901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9448036895246513</v>
+        <v>0.9448463184948486</v>
       </c>
       <c r="D22">
-        <v>0.9755331355192444</v>
+        <v>0.9755674541973909</v>
       </c>
       <c r="E22">
-        <v>0.9267991630374269</v>
+        <v>0.9268258689768843</v>
       </c>
       <c r="F22">
-        <v>0.921574925857669</v>
+        <v>0.9216113524679399</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023915581854906</v>
+        <v>1.023934665848517</v>
       </c>
       <c r="J22">
-        <v>0.9781733267476641</v>
+        <v>0.9782137523457903</v>
       </c>
       <c r="K22">
-        <v>0.9916053830202772</v>
+        <v>0.9916389759684072</v>
       </c>
       <c r="L22">
-        <v>0.9439749672173753</v>
+        <v>0.9440010256643768</v>
       </c>
       <c r="M22">
-        <v>0.9388783649864549</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9389138949009376</v>
+      </c>
+      <c r="N22">
+        <v>0.9862222855835258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9484013860606044</v>
+        <v>0.9484412202055985</v>
       </c>
       <c r="D23">
-        <v>0.9782853276495374</v>
+        <v>0.9783174289445967</v>
       </c>
       <c r="E23">
-        <v>0.9298876356917107</v>
+        <v>0.9299128073887305</v>
       </c>
       <c r="F23">
-        <v>0.9256684755843013</v>
+        <v>0.9257025380158402</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025249762983625</v>
+        <v>1.025267624304474</v>
       </c>
       <c r="J23">
-        <v>0.9808648247187763</v>
+        <v>0.9809026745482229</v>
       </c>
       <c r="K23">
-        <v>0.9939764768392263</v>
+        <v>0.9940079200596785</v>
       </c>
       <c r="L23">
-        <v>0.946640215702111</v>
+        <v>0.9466647968649157</v>
       </c>
       <c r="M23">
-        <v>0.9425206468851829</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9425539004137244</v>
+      </c>
+      <c r="N23">
+        <v>0.9880964520889544</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9619283599242118</v>
+        <v>0.9619580765945406</v>
       </c>
       <c r="D24">
-        <v>0.9886503566958331</v>
+        <v>0.9886743918474767</v>
       </c>
       <c r="E24">
-        <v>0.941546002639375</v>
+        <v>0.9415656954401913</v>
       </c>
       <c r="F24">
-        <v>0.9410713344079623</v>
+        <v>0.9410969317018573</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030235383848243</v>
+        <v>1.030248786645665</v>
       </c>
       <c r="J24">
-        <v>0.9909750268246248</v>
+        <v>0.9910034663912854</v>
       </c>
       <c r="K24">
-        <v>1.002879760142318</v>
+        <v>1.002903360527636</v>
       </c>
       <c r="L24">
-        <v>0.9566837649674188</v>
+        <v>0.9567030529493327</v>
       </c>
       <c r="M24">
-        <v>0.956218861110518</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9562439315122671</v>
+      </c>
+      <c r="N24">
+        <v>0.9951334568845088</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9764904771251773</v>
+        <v>0.9765099093348837</v>
       </c>
       <c r="D25">
-        <v>0.9998342344125518</v>
+        <v>0.9998500082559908</v>
       </c>
       <c r="E25">
-        <v>0.9541825899485473</v>
+        <v>0.9541968494460181</v>
       </c>
       <c r="F25">
-        <v>0.9576835263349109</v>
+        <v>0.9577006709185313</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035536243664535</v>
+        <v>1.035545061035092</v>
       </c>
       <c r="J25">
-        <v>1.001835786395908</v>
+        <v>1.001854519695228</v>
       </c>
       <c r="K25">
-        <v>1.012435124223291</v>
+        <v>1.012450653099306</v>
       </c>
       <c r="L25">
-        <v>0.9675363984267696</v>
+        <v>0.9675504081755513</v>
       </c>
       <c r="M25">
-        <v>0.9709763063917417</v>
+        <v>0.9709931535312963</v>
+      </c>
+      <c r="N25">
+        <v>1.002685786196532</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9873516598327666</v>
+        <v>1.028995819599324</v>
       </c>
       <c r="D2">
-        <v>1.008189511287099</v>
+        <v>1.046617641479942</v>
       </c>
       <c r="E2">
-        <v>0.9636707266854851</v>
+        <v>1.03282693751254</v>
       </c>
       <c r="F2">
-        <v>0.9701014173479304</v>
+        <v>1.049180282004004</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039434603602456</v>
+        <v>1.061839352239441</v>
       </c>
       <c r="J2">
-        <v>1.009917376103744</v>
+        <v>1.050342555708422</v>
       </c>
       <c r="K2">
-        <v>1.019535920184094</v>
+        <v>1.057463587455239</v>
       </c>
       <c r="L2">
-        <v>0.9756605122232596</v>
+        <v>1.04384712730344</v>
       </c>
       <c r="M2">
-        <v>0.9819936234731376</v>
+        <v>1.059994477681689</v>
       </c>
       <c r="N2">
-        <v>1.008290902359812</v>
+        <v>1.051834162613504</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9948406696644313</v>
+        <v>1.038588792882276</v>
       </c>
       <c r="D3">
-        <v>1.013954680223834</v>
+        <v>1.054264239504069</v>
       </c>
       <c r="E3">
-        <v>0.9702491859076121</v>
+        <v>1.040580485388307</v>
       </c>
       <c r="F3">
-        <v>0.9786871206630848</v>
+        <v>1.057268653216596</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042087173761286</v>
+        <v>1.065438078079974</v>
       </c>
       <c r="J3">
-        <v>1.01547297824993</v>
+        <v>1.058080045072053</v>
       </c>
       <c r="K3">
-        <v>1.024412068391946</v>
+        <v>1.064246868587295</v>
       </c>
       <c r="L3">
-        <v>0.9812774392478482</v>
+        <v>1.050719182080458</v>
       </c>
       <c r="M3">
-        <v>0.9896001680210619</v>
+        <v>1.067217681675094</v>
       </c>
       <c r="N3">
-        <v>1.012148880471777</v>
+        <v>1.059582640099533</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9995262518407596</v>
+        <v>1.044568321784171</v>
       </c>
       <c r="D4">
-        <v>1.017562984396547</v>
+        <v>1.059032063325447</v>
       </c>
       <c r="E4">
-        <v>0.9743803686694233</v>
+        <v>1.04541203506536</v>
       </c>
       <c r="F4">
-        <v>0.984068687477012</v>
+        <v>1.062312635403184</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043730502349863</v>
+        <v>1.06766515721996</v>
       </c>
       <c r="J4">
-        <v>1.018942083912956</v>
+        <v>1.062896812075018</v>
       </c>
       <c r="K4">
-        <v>1.027453961908711</v>
+        <v>1.068466637217618</v>
       </c>
       <c r="L4">
-        <v>0.9847981614779812</v>
+        <v>1.054991611274896</v>
       </c>
       <c r="M4">
-        <v>0.994363269950614</v>
+        <v>1.071712962125874</v>
       </c>
       <c r="N4">
-        <v>1.014555916436434</v>
+        <v>1.064406247464133</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001459948544087</v>
+        <v>1.04703139635586</v>
       </c>
       <c r="D5">
-        <v>1.019052283123831</v>
+        <v>1.06099623725336</v>
       </c>
       <c r="E5">
-        <v>0.976088868526976</v>
+        <v>1.047401740905276</v>
       </c>
       <c r="F5">
-        <v>0.9862920605652409</v>
+        <v>1.064390748619705</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044404710417509</v>
+        <v>1.068578596901501</v>
       </c>
       <c r="J5">
-        <v>1.020372058303531</v>
+        <v>1.064879365962094</v>
       </c>
       <c r="K5">
-        <v>1.028707100484454</v>
+        <v>1.07020272038085</v>
       </c>
       <c r="L5">
-        <v>0.9862526194634286</v>
+        <v>1.056748725741909</v>
       </c>
       <c r="M5">
-        <v>0.9963299595064264</v>
+        <v>1.073562830514579</v>
       </c>
       <c r="N5">
-        <v>1.015547605409622</v>
+        <v>1.066391616805131</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001782568264989</v>
+        <v>1.047442086300961</v>
       </c>
       <c r="D6">
-        <v>1.0193007666629</v>
+        <v>1.061323750332852</v>
       </c>
       <c r="E6">
-        <v>0.9763741259698641</v>
+        <v>1.04773346860238</v>
       </c>
       <c r="F6">
-        <v>0.9866631568369919</v>
+        <v>1.064737270549276</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044516959819864</v>
+        <v>1.068730669217715</v>
       </c>
       <c r="J6">
-        <v>1.020610535285818</v>
+        <v>1.065209840839807</v>
       </c>
       <c r="K6">
-        <v>1.028916042195491</v>
+        <v>1.070492065631351</v>
       </c>
       <c r="L6">
-        <v>0.9864953686347671</v>
+        <v>1.057041538391683</v>
       </c>
       <c r="M6">
-        <v>0.9966581439430706</v>
+        <v>1.073871165273657</v>
       </c>
       <c r="N6">
-        <v>1.015712959826108</v>
+        <v>1.066722560995076</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9995522290969563</v>
+        <v>1.044601428072298</v>
       </c>
       <c r="D7">
-        <v>1.017582991034686</v>
+        <v>1.05905846316615</v>
       </c>
       <c r="E7">
-        <v>0.9744033064683194</v>
+        <v>1.045438780941391</v>
       </c>
       <c r="F7">
-        <v>0.9840985464206766</v>
+        <v>1.06234056597969</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043739575504503</v>
+        <v>1.067677450485971</v>
       </c>
       <c r="J7">
-        <v>1.018961300952653</v>
+        <v>1.062923465931776</v>
       </c>
       <c r="K7">
-        <v>1.027470805466264</v>
+        <v>1.068489980487463</v>
       </c>
       <c r="L7">
-        <v>0.9848176948201701</v>
+        <v>1.055015239867479</v>
       </c>
       <c r="M7">
-        <v>0.9943896864089198</v>
+        <v>1.07173783362761</v>
       </c>
       <c r="N7">
-        <v>1.014569245466163</v>
+        <v>1.064432939172425</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9899172251491989</v>
+        <v>1.032287400071216</v>
       </c>
       <c r="D8">
-        <v>1.01016418508776</v>
+        <v>1.049240959721094</v>
       </c>
       <c r="E8">
-        <v>0.9659210747027583</v>
+        <v>1.035487566882271</v>
       </c>
       <c r="F8">
-        <v>0.9730406653256599</v>
+        <v>1.051955011909138</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040346713428707</v>
+        <v>1.063077528322813</v>
       </c>
       <c r="J8">
-        <v>1.011822005698774</v>
+        <v>1.052998741977124</v>
       </c>
       <c r="K8">
-        <v>1.021208213950393</v>
+        <v>1.059792816497245</v>
       </c>
       <c r="L8">
-        <v>0.9775833485357834</v>
+        <v>1.04620737082744</v>
       </c>
       <c r="M8">
-        <v>0.9845986400925835</v>
+        <v>1.062474369961939</v>
       </c>
       <c r="N8">
-        <v>1.009613953010025</v>
+        <v>1.054494120971376</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9715974688946647</v>
+        <v>1.008647147484026</v>
       </c>
       <c r="D9">
-        <v>0.9960747488533964</v>
+        <v>1.030413741319036</v>
       </c>
       <c r="E9">
-        <v>0.9499223475232225</v>
+        <v>1.016380274973578</v>
       </c>
       <c r="F9">
-        <v>0.9520910599271724</v>
+        <v>1.032044154659243</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033765940131799</v>
+        <v>1.054117664117973</v>
       </c>
       <c r="J9">
-        <v>0.9981946616350866</v>
+        <v>1.033898204924035</v>
       </c>
       <c r="K9">
-        <v>1.00923183317288</v>
+        <v>1.04303192262719</v>
       </c>
       <c r="L9">
-        <v>0.9638837485000121</v>
+        <v>1.029213068523638</v>
       </c>
       <c r="M9">
-        <v>0.9660123906635308</v>
+        <v>1.044637883792061</v>
       </c>
       <c r="N9">
-        <v>1.00013954127044</v>
+        <v>1.035366458964809</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9582996294175571</v>
+        <v>0.9912556223111095</v>
       </c>
       <c r="D10">
-        <v>0.9858686995902063</v>
+        <v>1.016589872969835</v>
       </c>
       <c r="E10">
-        <v>0.9384044155901813</v>
+        <v>1.002336136471288</v>
       </c>
       <c r="F10">
-        <v>0.9369281508801981</v>
+        <v>1.017428617877921</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028905810510651</v>
+        <v>1.04744371790277</v>
       </c>
       <c r="J10">
-        <v>0.988271317362861</v>
+        <v>1.019820525487244</v>
       </c>
       <c r="K10">
-        <v>1.000497874148388</v>
+        <v>1.030665916161411</v>
       </c>
       <c r="L10">
-        <v>0.953982591223395</v>
+        <v>1.016663338970958</v>
       </c>
       <c r="M10">
-        <v>0.9525378876305909</v>
+        <v>1.031490165447584</v>
       </c>
       <c r="N10">
-        <v>0.993230587089864</v>
+        <v>1.021268787608486</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.952235050178439</v>
+        <v>0.9832459243086769</v>
       </c>
       <c r="D11">
-        <v>0.9812217310350263</v>
+        <v>1.010233233928215</v>
       </c>
       <c r="E11">
-        <v>0.933176049890265</v>
+        <v>0.9958753109813384</v>
       </c>
       <c r="F11">
-        <v>0.9300213044545901</v>
+        <v>1.010708978413445</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026670843991884</v>
+        <v>1.044352114765683</v>
       </c>
       <c r="J11">
-        <v>0.9837393519195554</v>
+        <v>1.013332692873659</v>
       </c>
       <c r="K11">
-        <v>0.9965066846726811</v>
+        <v>1.02496471274631</v>
       </c>
       <c r="L11">
-        <v>0.9494786801826728</v>
+        <v>1.010875434364664</v>
       </c>
       <c r="M11">
-        <v>0.9463956718515361</v>
+        <v>1.025431725939401</v>
       </c>
       <c r="N11">
-        <v>0.9900732484239078</v>
+        <v>1.014771741528425</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9499313648508521</v>
+        <v>0.9801890703372025</v>
       </c>
       <c r="D12">
-        <v>0.9794579256506971</v>
+        <v>1.007809126544486</v>
       </c>
       <c r="E12">
-        <v>0.9311938704419499</v>
+        <v>0.9934111080225912</v>
       </c>
       <c r="F12">
-        <v>0.9273987092661977</v>
+        <v>1.008146609741674</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025819225109861</v>
+        <v>1.043169709326204</v>
       </c>
       <c r="J12">
-        <v>0.9820170025113794</v>
+        <v>1.010856190574577</v>
       </c>
       <c r="K12">
-        <v>0.9949895528352648</v>
+        <v>1.02278822984153</v>
       </c>
       <c r="L12">
-        <v>0.9477697045658962</v>
+        <v>1.008665638932756</v>
       </c>
       <c r="M12">
-        <v>0.9440628278988721</v>
+        <v>1.023119380346564</v>
       </c>
       <c r="N12">
-        <v>0.9888730397112571</v>
+        <v>1.012291722312019</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.95042791085064</v>
+        <v>0.9808486499321708</v>
       </c>
       <c r="D13">
-        <v>0.9798380367426737</v>
+        <v>1.008332087238698</v>
       </c>
       <c r="E13">
-        <v>0.9316209402340933</v>
+        <v>0.9939427336852414</v>
       </c>
       <c r="F13">
-        <v>0.9279639516844571</v>
+        <v>1.008699390079133</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026002903791321</v>
+        <v>1.043424947913703</v>
       </c>
       <c r="J13">
-        <v>0.9823882809254589</v>
+        <v>1.011390564516757</v>
       </c>
       <c r="K13">
-        <v>0.9953166060491346</v>
+        <v>1.023257876007353</v>
       </c>
       <c r="L13">
-        <v>0.9481379773675281</v>
+        <v>1.009142481333198</v>
       </c>
       <c r="M13">
-        <v>0.9445656458146513</v>
+        <v>1.023618319276519</v>
       </c>
       <c r="N13">
-        <v>0.9891317749260626</v>
+        <v>1.01282685512649</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9520456993942725</v>
+        <v>0.9829949734472325</v>
       </c>
       <c r="D14">
-        <v>0.9810767258887468</v>
+        <v>1.010034187994844</v>
       </c>
       <c r="E14">
-        <v>0.9330130458046169</v>
+        <v>0.9956729796313853</v>
       </c>
       <c r="F14">
-        <v>0.9298057214059547</v>
+        <v>1.010498576179636</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026600898229372</v>
+        <v>1.044255095493825</v>
       </c>
       <c r="J14">
-        <v>0.9835978002265764</v>
+        <v>1.013129393748039</v>
       </c>
       <c r="K14">
-        <v>0.996382004564304</v>
+        <v>1.024786047080929</v>
       </c>
       <c r="L14">
-        <v>0.9493381725682858</v>
+        <v>1.010694037840871</v>
       </c>
       <c r="M14">
-        <v>0.9462039183382794</v>
+        <v>1.025241896734014</v>
       </c>
       <c r="N14">
-        <v>0.9899746144679692</v>
+        <v>1.014568153694726</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9530355482078271</v>
+        <v>0.9843062454617875</v>
       </c>
       <c r="D15">
-        <v>0.9818348116317315</v>
+        <v>1.01107432357492</v>
       </c>
       <c r="E15">
-        <v>0.9338653227179627</v>
+        <v>0.9967302692383442</v>
       </c>
       <c r="F15">
-        <v>0.930932742364768</v>
+        <v>1.011598062260107</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026966439595484</v>
+        <v>1.044761941313256</v>
       </c>
       <c r="J15">
-        <v>0.9843377414134057</v>
+        <v>1.014191657859973</v>
       </c>
       <c r="K15">
-        <v>0.9970337401091436</v>
+        <v>1.025719588651739</v>
       </c>
       <c r="L15">
-        <v>0.9500727661428621</v>
+        <v>1.011641840276032</v>
       </c>
       <c r="M15">
-        <v>0.947206340437531</v>
+        <v>1.026233789772213</v>
       </c>
       <c r="N15">
-        <v>0.9904901981889019</v>
+        <v>1.015631926343544</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.958695249580041</v>
+        <v>0.9917763184911693</v>
       </c>
       <c r="D16">
-        <v>0.9861720190177665</v>
+        <v>1.017003340820771</v>
       </c>
       <c r="E16">
-        <v>0.9387460055133782</v>
+        <v>1.002756327031271</v>
       </c>
       <c r="F16">
-        <v>0.9373788701345765</v>
+        <v>1.017865719348279</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029051237029435</v>
+        <v>1.047644343817816</v>
       </c>
       <c r="J16">
-        <v>0.9885668362918887</v>
+        <v>1.020242214137961</v>
       </c>
       <c r="K16">
-        <v>1.000758085541294</v>
+        <v>1.031036437638365</v>
       </c>
       <c r="L16">
-        <v>0.954276651762368</v>
+        <v>1.017039460849327</v>
       </c>
       <c r="M16">
-        <v>0.9529386242059122</v>
+        <v>1.031883971759723</v>
       </c>
       <c r="N16">
-        <v>0.9934364300002899</v>
+        <v>1.021691075105454</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9621600813728461</v>
+        <v>0.9963275407950413</v>
       </c>
       <c r="D17">
-        <v>0.9888293612167822</v>
+        <v>1.020618469093749</v>
       </c>
       <c r="E17">
-        <v>0.9417404110809571</v>
+        <v>1.006429916620932</v>
       </c>
       <c r="F17">
-        <v>0.9413271702803131</v>
+        <v>1.021687602980279</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030322817810069</v>
+        <v>1.049395961424508</v>
       </c>
       <c r="J17">
-        <v>0.9911542825492673</v>
+        <v>1.023927581405704</v>
       </c>
       <c r="K17">
-        <v>1.003036128719197</v>
+        <v>1.034274388452261</v>
       </c>
       <c r="L17">
-        <v>0.9568533428346355</v>
+        <v>1.020326137612571</v>
       </c>
       <c r="M17">
-        <v>0.9564485838807797</v>
+        <v>1.035325763324167</v>
       </c>
       <c r="N17">
-        <v>0.9952384828484057</v>
+        <v>1.025381676017435</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9641518574000855</v>
+        <v>0.9989367160205816</v>
       </c>
       <c r="D18">
-        <v>0.9903576387792933</v>
+        <v>1.022691889988855</v>
       </c>
       <c r="E18">
-        <v>0.94346403553721</v>
+        <v>1.008536592118268</v>
       </c>
       <c r="F18">
-        <v>0.9435976632753538</v>
+        <v>1.02387970126531</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031052056592683</v>
+        <v>1.050398471451566</v>
       </c>
       <c r="J18">
-        <v>0.9926410874054094</v>
+        <v>1.026039953213677</v>
       </c>
       <c r="K18">
-        <v>1.004344913882645</v>
+        <v>1.036130099511458</v>
       </c>
       <c r="L18">
-        <v>0.9583356405041457</v>
+        <v>1.022209582010346</v>
       </c>
       <c r="M18">
-        <v>0.95846658389038</v>
+        <v>1.037298588900272</v>
       </c>
       <c r="N18">
-        <v>0.9962737907141869</v>
+        <v>1.027497047635669</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.964826187526552</v>
+        <v>0.9998189296756063</v>
       </c>
       <c r="D19">
-        <v>0.9908751585229232</v>
+        <v>1.023393097401248</v>
       </c>
       <c r="E19">
-        <v>0.9440479619275521</v>
+        <v>1.009248997398473</v>
       </c>
       <c r="F19">
-        <v>0.9443664953169605</v>
+        <v>1.024621059820078</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031298647639817</v>
+        <v>1.050737150756093</v>
       </c>
       <c r="J19">
-        <v>0.9931443507358156</v>
+        <v>1.026754112122426</v>
       </c>
       <c r="K19">
-        <v>1.004787879299217</v>
+        <v>1.036757447460888</v>
       </c>
       <c r="L19">
-        <v>0.9588376615305363</v>
+        <v>1.022846270818744</v>
       </c>
       <c r="M19">
-        <v>0.959149843070957</v>
+        <v>1.037965577297566</v>
       </c>
       <c r="N19">
-        <v>0.9966241950605956</v>
+        <v>1.028212220731983</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.961791391749021</v>
+        <v>0.9958440058415347</v>
       </c>
       <c r="D20">
-        <v>0.9885465222982652</v>
+        <v>1.020234291362174</v>
       </c>
       <c r="E20">
-        <v>0.9414215411954093</v>
+        <v>1.006039554462796</v>
       </c>
       <c r="F20">
-        <v>0.9409069541785843</v>
+        <v>1.021281443511256</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030187689741902</v>
+        <v>1.04921003797235</v>
       </c>
       <c r="J20">
-        <v>0.9908790165592032</v>
+        <v>1.023536079508546</v>
       </c>
       <c r="K20">
-        <v>1.002793802127323</v>
+        <v>1.033930437727463</v>
       </c>
       <c r="L20">
-        <v>0.9565790468778996</v>
+        <v>1.019977030454853</v>
       </c>
       <c r="M20">
-        <v>0.9560750636139914</v>
+        <v>1.034960129126469</v>
       </c>
       <c r="N20">
-        <v>0.9950467909140676</v>
+        <v>1.024989618142677</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.951570753557422</v>
+        <v>0.9823652775672663</v>
       </c>
       <c r="D21">
-        <v>0.9807130347693587</v>
+        <v>1.009534765334635</v>
       </c>
       <c r="E21">
-        <v>0.9326042477394584</v>
+        <v>0.9951653080319007</v>
       </c>
       <c r="F21">
-        <v>0.9292649933564509</v>
+        <v>1.009970662398698</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026425412226642</v>
+        <v>1.044011611209566</v>
       </c>
       <c r="J21">
-        <v>0.9832427350512509</v>
+        <v>1.012619260843316</v>
       </c>
       <c r="K21">
-        <v>0.9960692550804876</v>
+        <v>1.024337722559852</v>
       </c>
       <c r="L21">
-        <v>0.948985769974122</v>
+        <v>1.010238857704633</v>
       </c>
       <c r="M21">
-        <v>0.9457229507087488</v>
+        <v>1.024765568040444</v>
       </c>
       <c r="N21">
-        <v>0.9897271988248901</v>
+        <v>1.014057296342767</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9448463184948486</v>
+        <v>0.9734116734331498</v>
       </c>
       <c r="D22">
-        <v>0.9755674541973909</v>
+        <v>1.002438528429433</v>
       </c>
       <c r="E22">
-        <v>0.9268258689768843</v>
+        <v>0.9879511057135031</v>
       </c>
       <c r="F22">
-        <v>0.9216113524679399</v>
+        <v>1.002470029767712</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023934665848517</v>
+        <v>1.040543751496944</v>
       </c>
       <c r="J22">
-        <v>0.9782137523457903</v>
+        <v>1.005364896106742</v>
       </c>
       <c r="K22">
-        <v>0.9916389759684072</v>
+        <v>1.017961831885342</v>
       </c>
       <c r="L22">
-        <v>0.9440010256643768</v>
+        <v>1.003765092947381</v>
       </c>
       <c r="M22">
-        <v>0.9389138949009376</v>
+        <v>1.017992713181482</v>
       </c>
       <c r="N22">
-        <v>0.9862222855835258</v>
+        <v>1.006792629576179</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9484412202055985</v>
+        <v>0.9782073293191101</v>
       </c>
       <c r="D23">
-        <v>0.9783174289445967</v>
+        <v>1.006238169881147</v>
       </c>
       <c r="E23">
-        <v>0.9299128073887305</v>
+        <v>0.9918140755703998</v>
       </c>
       <c r="F23">
-        <v>0.9257025380158402</v>
+        <v>1.006486102143005</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025267624304474</v>
+        <v>1.042402478706444</v>
       </c>
       <c r="J23">
-        <v>0.9809026745482229</v>
+        <v>1.0092505859219</v>
       </c>
       <c r="K23">
-        <v>0.9940079200596785</v>
+        <v>1.021377080070872</v>
       </c>
       <c r="L23">
-        <v>0.9466647968649157</v>
+        <v>1.00723284332672</v>
       </c>
       <c r="M23">
-        <v>0.9425539004137244</v>
+        <v>1.021620293638591</v>
       </c>
       <c r="N23">
-        <v>0.9880964520889544</v>
+        <v>1.01068383751657</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.9619580765945406</v>
+        <v>0.9960626342900109</v>
       </c>
       <c r="D24">
-        <v>0.9886743918474767</v>
+        <v>1.020407993054221</v>
       </c>
       <c r="E24">
-        <v>0.9415656954401913</v>
+        <v>1.006216053236378</v>
       </c>
       <c r="F24">
-        <v>0.9410969317018573</v>
+        <v>1.021465083707176</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030248786645665</v>
+        <v>1.04929410777</v>
       </c>
       <c r="J24">
-        <v>0.9910034663912854</v>
+        <v>1.023713096878558</v>
       </c>
       <c r="K24">
-        <v>1.002903360527636</v>
+        <v>1.034085955524948</v>
       </c>
       <c r="L24">
-        <v>0.9567030529493327</v>
+        <v>1.020134880344849</v>
       </c>
       <c r="M24">
-        <v>0.9562439315122671</v>
+        <v>1.035125450233924</v>
       </c>
       <c r="N24">
-        <v>0.9951334568845088</v>
+        <v>1.025166886897659</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9765099093348837</v>
+        <v>1.015019212651935</v>
       </c>
       <c r="D25">
-        <v>0.9998500082559908</v>
+        <v>1.035484986422366</v>
       </c>
       <c r="E25">
-        <v>0.9541968494460181</v>
+        <v>1.021529561080745</v>
       </c>
       <c r="F25">
-        <v>0.9577006709185313</v>
+        <v>1.037406628408115</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035545061035092</v>
+        <v>1.056547047138197</v>
       </c>
       <c r="J25">
-        <v>1.001854519695228</v>
+        <v>1.03905148089833</v>
       </c>
       <c r="K25">
-        <v>1.012450653099306</v>
+        <v>1.047556331228986</v>
       </c>
       <c r="L25">
-        <v>0.9675504081755513</v>
+        <v>1.033802604994778</v>
       </c>
       <c r="M25">
-        <v>0.9709931535312963</v>
+        <v>1.049450736936171</v>
       </c>
       <c r="N25">
-        <v>1.002685786196532</v>
+        <v>1.040527053182077</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028995819599324</v>
+        <v>1.002037934403995</v>
       </c>
       <c r="D2">
-        <v>1.046617641479942</v>
+        <v>1.01909618906538</v>
       </c>
       <c r="E2">
-        <v>1.03282693751254</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.049180282004004</v>
+        <v>1.007772020858279</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.061839352239441</v>
+        <v>1.041835660359607</v>
       </c>
       <c r="J2">
-        <v>1.050342555708422</v>
+        <v>1.024157861593275</v>
       </c>
       <c r="K2">
-        <v>1.057463587455239</v>
+        <v>1.030295742847095</v>
       </c>
       <c r="L2">
-        <v>1.04384712730344</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.059994477681689</v>
+        <v>1.019124130663623</v>
       </c>
       <c r="N2">
-        <v>1.051834162613504</v>
+        <v>1.012048351952851</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038588792882276</v>
+        <v>1.005567076059143</v>
       </c>
       <c r="D3">
-        <v>1.054264239504069</v>
+        <v>1.021624446501962</v>
       </c>
       <c r="E3">
-        <v>1.040580485388307</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.057268653216596</v>
+        <v>1.012227362562643</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.065438078079974</v>
+        <v>1.042773132405747</v>
       </c>
       <c r="J3">
-        <v>1.058080045072053</v>
+        <v>1.02590711894827</v>
       </c>
       <c r="K3">
-        <v>1.064246868587295</v>
+        <v>1.031987917517119</v>
       </c>
       <c r="L3">
-        <v>1.050719182080458</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.067217681675094</v>
+        <v>1.022706146453176</v>
       </c>
       <c r="N3">
-        <v>1.059582640099533</v>
+        <v>1.012630117690016</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044568321784171</v>
+        <v>1.007808844579771</v>
       </c>
       <c r="D4">
-        <v>1.059032063325447</v>
+        <v>1.023232869567038</v>
       </c>
       <c r="E4">
-        <v>1.04541203506536</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.062312635403184</v>
+        <v>1.015058950417127</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.06766515721996</v>
+        <v>1.043360108355129</v>
       </c>
       <c r="J4">
-        <v>1.062896812075018</v>
+        <v>1.027014886842265</v>
       </c>
       <c r="K4">
-        <v>1.068466637217618</v>
+        <v>1.033058753000255</v>
       </c>
       <c r="L4">
-        <v>1.054991611274896</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.071712962125874</v>
+        <v>1.024978962080398</v>
       </c>
       <c r="N4">
-        <v>1.064406247464133</v>
+        <v>1.012998514168124</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04703139635586</v>
+        <v>1.008741561480649</v>
       </c>
       <c r="D5">
-        <v>1.06099623725336</v>
+        <v>1.0239026240748</v>
       </c>
       <c r="E5">
-        <v>1.047401740905276</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.064390748619705</v>
+        <v>1.016237477094619</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.068578596901501</v>
+        <v>1.043602257015978</v>
       </c>
       <c r="J5">
-        <v>1.064879365962094</v>
+        <v>1.027474956270723</v>
       </c>
       <c r="K5">
-        <v>1.07020272038085</v>
+        <v>1.033503287831881</v>
       </c>
       <c r="L5">
-        <v>1.056748725741909</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.073562830514579</v>
+        <v>1.02592401359426</v>
       </c>
       <c r="N5">
-        <v>1.066391616805131</v>
+        <v>1.013151506863818</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047442086300961</v>
+        <v>1.008897606811995</v>
       </c>
       <c r="D6">
-        <v>1.061323750332852</v>
+        <v>1.0240147065866</v>
       </c>
       <c r="E6">
-        <v>1.04773346860238</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.064737270549276</v>
+        <v>1.016434672325365</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.068730669217715</v>
+        <v>1.043642646518707</v>
       </c>
       <c r="J6">
-        <v>1.065209840839807</v>
+        <v>1.027551877339775</v>
       </c>
       <c r="K6">
-        <v>1.070492065631351</v>
+        <v>1.03357759983378</v>
       </c>
       <c r="L6">
-        <v>1.057041538391683</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.073871165273657</v>
+        <v>1.026082089007594</v>
       </c>
       <c r="N6">
-        <v>1.066722560995076</v>
+        <v>1.013177085962366</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044601428072298</v>
+        <v>1.007821345416134</v>
       </c>
       <c r="D7">
-        <v>1.05905846316615</v>
+        <v>1.023241843898531</v>
       </c>
       <c r="E7">
-        <v>1.045438780941391</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.06234056597969</v>
+        <v>1.01507474406726</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.067677450485971</v>
+        <v>1.043363361986559</v>
       </c>
       <c r="J7">
-        <v>1.062923465931776</v>
+        <v>1.027021056280044</v>
       </c>
       <c r="K7">
-        <v>1.068489980487463</v>
+        <v>1.033064714908017</v>
       </c>
       <c r="L7">
-        <v>1.055015239867479</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.07173783362761</v>
+        <v>1.024991630500692</v>
       </c>
       <c r="N7">
-        <v>1.064432939172425</v>
+        <v>1.013000565797693</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032287400071216</v>
+        <v>1.003239462290109</v>
       </c>
       <c r="D8">
-        <v>1.049240959721094</v>
+        <v>1.019956426306583</v>
       </c>
       <c r="E8">
-        <v>1.035487566882271</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.051955011909138</v>
+        <v>1.009288604040804</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063077528322813</v>
+        <v>1.042156599819875</v>
       </c>
       <c r="J8">
-        <v>1.052998741977124</v>
+        <v>1.024754110151836</v>
       </c>
       <c r="K8">
-        <v>1.059792816497245</v>
+        <v>1.030872693600859</v>
       </c>
       <c r="L8">
-        <v>1.04620737082744</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.062474369961939</v>
+        <v>1.020344208272268</v>
       </c>
       <c r="N8">
-        <v>1.054494120971376</v>
+        <v>1.012246655740551</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008647147484026</v>
+        <v>0.9948316419869886</v>
       </c>
       <c r="D9">
-        <v>1.030413741319036</v>
+        <v>1.013948556144189</v>
       </c>
       <c r="E9">
-        <v>1.016380274973578</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.032044154659243</v>
+        <v>0.9986801710468415</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054117664117973</v>
+        <v>1.039875819615199</v>
       </c>
       <c r="J9">
-        <v>1.033898204924035</v>
+        <v>1.020568237739395</v>
       </c>
       <c r="K9">
-        <v>1.04303192262719</v>
+        <v>1.026819309977673</v>
       </c>
       <c r="L9">
-        <v>1.029213068523638</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.044637883792061</v>
+        <v>1.011794697910892</v>
       </c>
       <c r="N9">
-        <v>1.035366458964809</v>
+        <v>1.010854442188637</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9912556223111095</v>
+        <v>0.9889818052474697</v>
       </c>
       <c r="D10">
-        <v>1.016589872969835</v>
+        <v>1.009785044097545</v>
       </c>
       <c r="E10">
-        <v>1.002336136471288</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.017428617877921</v>
+        <v>0.9913017144260238</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04744371790277</v>
+        <v>1.038245696552471</v>
       </c>
       <c r="J10">
-        <v>1.019820525487244</v>
+        <v>1.017639500027343</v>
       </c>
       <c r="K10">
-        <v>1.030665916161411</v>
+        <v>1.023979845823908</v>
       </c>
       <c r="L10">
-        <v>1.016663338970958</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.031490165447584</v>
+        <v>1.005829815395476</v>
       </c>
       <c r="N10">
-        <v>1.021268787608486</v>
+        <v>1.009880335120014</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9832459243086769</v>
+        <v>0.9863859497140722</v>
       </c>
       <c r="D11">
-        <v>1.010233233928215</v>
+        <v>1.007941964071018</v>
       </c>
       <c r="E11">
-        <v>0.9958753109813384</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.010708978413445</v>
+        <v>0.9880272282811443</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044352114765683</v>
+        <v>1.037512436545033</v>
       </c>
       <c r="J11">
-        <v>1.013332692873659</v>
+        <v>1.016336265090481</v>
       </c>
       <c r="K11">
-        <v>1.02496471274631</v>
+        <v>1.022715644817448</v>
       </c>
       <c r="L11">
-        <v>1.010875434364664</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.025431725939401</v>
+        <v>1.00317852162989</v>
       </c>
       <c r="N11">
-        <v>1.014771741528425</v>
+        <v>1.009446888500605</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9801890703372025</v>
+        <v>0.9854118574668014</v>
       </c>
       <c r="D12">
-        <v>1.007809126544486</v>
+        <v>1.007251070244629</v>
       </c>
       <c r="E12">
-        <v>0.9934111080225912</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.008146609741674</v>
+        <v>0.9867983529107641</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043169709326204</v>
+        <v>1.037235825731941</v>
       </c>
       <c r="J12">
-        <v>1.010856190574577</v>
+        <v>1.01584670796631</v>
       </c>
       <c r="K12">
-        <v>1.02278822984153</v>
+        <v>1.022240657330659</v>
       </c>
       <c r="L12">
-        <v>1.008665638932756</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.023119380346564</v>
+        <v>1.002182922798234</v>
       </c>
       <c r="N12">
-        <v>1.012291722312019</v>
+        <v>1.009284068707428</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9808486499321708</v>
+        <v>0.9856212577397608</v>
       </c>
       <c r="D13">
-        <v>1.008332087238698</v>
+        <v>1.007399558113989</v>
       </c>
       <c r="E13">
-        <v>0.9939427336852414</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>1.008699390079133</v>
+        <v>0.9870625309520377</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043424947913703</v>
+        <v>1.037295353944029</v>
       </c>
       <c r="J13">
-        <v>1.011390564516757</v>
+        <v>1.015951970990406</v>
       </c>
       <c r="K13">
-        <v>1.023257876007353</v>
+        <v>1.022342791685338</v>
       </c>
       <c r="L13">
-        <v>1.009142481333198</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>1.023618319276519</v>
+        <v>1.002396978869542</v>
       </c>
       <c r="N13">
-        <v>1.01282685512649</v>
+        <v>1.009319077527693</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9829949734472325</v>
+        <v>0.9863056350181914</v>
       </c>
       <c r="D14">
-        <v>1.010034187994844</v>
+        <v>1.007884984385926</v>
       </c>
       <c r="E14">
-        <v>0.9956729796313853</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.010498576179636</v>
+        <v>0.9879259095926598</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044255095493825</v>
+        <v>1.037489659181018</v>
       </c>
       <c r="J14">
-        <v>1.013129393748039</v>
+        <v>1.016295911137144</v>
       </c>
       <c r="K14">
-        <v>1.024786047080929</v>
+        <v>1.022676493668966</v>
       </c>
       <c r="L14">
-        <v>1.010694037840871</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.025241896734014</v>
+        <v>1.003096448270382</v>
       </c>
       <c r="N14">
-        <v>1.014568153694726</v>
+        <v>1.009433467267638</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9843062454617875</v>
+        <v>0.9867259803393661</v>
       </c>
       <c r="D15">
-        <v>1.01107432357492</v>
+        <v>1.008183230257077</v>
       </c>
       <c r="E15">
-        <v>0.9967302692383442</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.011598062260107</v>
+        <v>0.9884561784073973</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044761941313256</v>
+        <v>1.037608810535787</v>
       </c>
       <c r="J15">
-        <v>1.014191657859973</v>
+        <v>1.016507091728381</v>
       </c>
       <c r="K15">
-        <v>1.025719588651739</v>
+        <v>1.022881375989851</v>
       </c>
       <c r="L15">
-        <v>1.011641840276032</v>
+        <v>0.9494987508782939</v>
       </c>
       <c r="M15">
-        <v>1.026233789772213</v>
+        <v>1.003525968997079</v>
       </c>
       <c r="N15">
-        <v>1.015631926343544</v>
+        <v>1.009503703505218</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9917763184911693</v>
+        <v>0.9891527231379676</v>
       </c>
       <c r="D16">
-        <v>1.017003340820771</v>
+        <v>1.009906494636418</v>
       </c>
       <c r="E16">
-        <v>1.002756327031271</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="F16">
-        <v>1.017865719348279</v>
+        <v>0.9915173019278301</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047644343817816</v>
+        <v>1.038293772444742</v>
       </c>
       <c r="J16">
-        <v>1.020242214137961</v>
+        <v>1.017725234995377</v>
       </c>
       <c r="K16">
-        <v>1.031036437638365</v>
+        <v>1.024062999368432</v>
       </c>
       <c r="L16">
-        <v>1.017039460849327</v>
+        <v>0.9519451749175716</v>
       </c>
       <c r="M16">
-        <v>1.031883971759723</v>
+        <v>1.006004288274082</v>
       </c>
       <c r="N16">
-        <v>1.021691075105454</v>
+        <v>1.009908850352931</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9963275407950413</v>
+        <v>0.9906578319987746</v>
       </c>
       <c r="D17">
-        <v>1.020618469093749</v>
+        <v>1.010976508012311</v>
       </c>
       <c r="E17">
-        <v>1.006429916620932</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.021687602980279</v>
+        <v>0.9934157283923275</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049395961424508</v>
+        <v>1.03871600566113</v>
       </c>
       <c r="J17">
-        <v>1.023927581405704</v>
+        <v>1.018479810946773</v>
       </c>
       <c r="K17">
-        <v>1.034274388452261</v>
+        <v>1.024794778082363</v>
       </c>
       <c r="L17">
-        <v>1.020326137612571</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.035325763324167</v>
+        <v>1.007540197121975</v>
       </c>
       <c r="N17">
-        <v>1.025381676017435</v>
+        <v>1.010159822086415</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9989367160205816</v>
+        <v>0.9915297043268888</v>
       </c>
       <c r="D18">
-        <v>1.022691889988855</v>
+        <v>1.011596762216879</v>
       </c>
       <c r="E18">
-        <v>1.008536592118268</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.02387970126531</v>
+        <v>0.994515416208928</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050398471451566</v>
+        <v>1.038959651917625</v>
       </c>
       <c r="J18">
-        <v>1.026039953213677</v>
+        <v>1.018916573092177</v>
       </c>
       <c r="K18">
-        <v>1.036130099511458</v>
+        <v>1.025218278459515</v>
       </c>
       <c r="L18">
-        <v>1.022209582010346</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.037298588900272</v>
+        <v>1.008429497078739</v>
       </c>
       <c r="N18">
-        <v>1.027497047635669</v>
+        <v>1.01030509021222</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9998189296756063</v>
+        <v>0.9918259798946022</v>
       </c>
       <c r="D19">
-        <v>1.023393097401248</v>
+        <v>1.011807604244545</v>
       </c>
       <c r="E19">
-        <v>1.009248997398473</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.024621059820078</v>
+        <v>0.9948891053058624</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050737150756093</v>
+        <v>1.0390422857727</v>
       </c>
       <c r="J19">
-        <v>1.026754112122426</v>
+        <v>1.019064932343286</v>
       </c>
       <c r="K19">
-        <v>1.036757447460888</v>
+        <v>1.025362121399175</v>
       </c>
       <c r="L19">
-        <v>1.022846270818744</v>
+        <v>0.9546352493816594</v>
       </c>
       <c r="M19">
-        <v>1.037965577297566</v>
+        <v>1.008731625865128</v>
       </c>
       <c r="N19">
-        <v>1.028212220731983</v>
+        <v>1.010354435007388</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9958440058415347</v>
+        <v>0.9904969750665054</v>
       </c>
       <c r="D20">
-        <v>1.020234291362174</v>
+        <v>1.010862107356352</v>
       </c>
       <c r="E20">
-        <v>1.006039554462796</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.021281443511256</v>
+        <v>0.9932128390727241</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04921003797235</v>
+        <v>1.038670977508173</v>
       </c>
       <c r="J20">
-        <v>1.023536079508546</v>
+        <v>1.0183992020522</v>
       </c>
       <c r="K20">
-        <v>1.033930437727463</v>
+        <v>1.024716611348567</v>
       </c>
       <c r="L20">
-        <v>1.019977030454853</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.034960129126469</v>
+        <v>1.007376091720219</v>
       </c>
       <c r="N20">
-        <v>1.024989618142677</v>
+        <v>1.010133011461234</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9823652775672663</v>
+        <v>0.9861043792162314</v>
       </c>
       <c r="D21">
-        <v>1.009534765334635</v>
+        <v>1.007742214166778</v>
       </c>
       <c r="E21">
-        <v>0.9951653080319007</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.009970662398698</v>
+        <v>0.9876720187965558</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044011611209566</v>
+        <v>1.037432559392212</v>
       </c>
       <c r="J21">
-        <v>1.012619260843316</v>
+        <v>1.016194782282757</v>
       </c>
       <c r="K21">
-        <v>1.024337722559852</v>
+        <v>1.022578377630466</v>
       </c>
       <c r="L21">
-        <v>1.010238857704633</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.024765568040444</v>
+        <v>1.002890774045766</v>
       </c>
       <c r="N21">
-        <v>1.014057296342767</v>
+        <v>1.00939983310309</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9734116734331498</v>
+        <v>0.9832852062516223</v>
       </c>
       <c r="D22">
-        <v>1.002438528429433</v>
+        <v>1.005744079484934</v>
       </c>
       <c r="E22">
-        <v>0.9879511057135031</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>1.002470029767712</v>
+        <v>0.9841151270855997</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040543751496944</v>
+        <v>1.036629285090808</v>
       </c>
       <c r="J22">
-        <v>1.005364896106742</v>
+        <v>1.014776971709306</v>
       </c>
       <c r="K22">
-        <v>1.017961831885342</v>
+        <v>1.021202597456679</v>
       </c>
       <c r="L22">
-        <v>1.003765092947381</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>1.017992713181482</v>
+        <v>1.000007973837185</v>
       </c>
       <c r="N22">
-        <v>1.006792629576179</v>
+        <v>1.008928297338165</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9782073293191101</v>
+        <v>0.9847852936848763</v>
       </c>
       <c r="D23">
-        <v>1.006238169881147</v>
+        <v>1.006806876797562</v>
       </c>
       <c r="E23">
-        <v>0.9918140755703998</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>1.006486102143005</v>
+        <v>0.9860078588232601</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042402478706444</v>
+        <v>1.037057495579458</v>
       </c>
       <c r="J23">
-        <v>1.0092505859219</v>
+        <v>1.015531667499975</v>
       </c>
       <c r="K23">
-        <v>1.021377080070872</v>
+        <v>1.021934967758536</v>
       </c>
       <c r="L23">
-        <v>1.00723284332672</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>1.021620293638591</v>
+        <v>1.001542321356773</v>
       </c>
       <c r="N23">
-        <v>1.01068383751657</v>
+        <v>1.009179291828728</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9960626342900109</v>
+        <v>0.9905696780002679</v>
       </c>
       <c r="D24">
-        <v>1.020407993054221</v>
+        <v>1.010913812019849</v>
       </c>
       <c r="E24">
-        <v>1.006216053236378</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>1.021465083707176</v>
+        <v>0.9933045395631517</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04929410777</v>
+        <v>1.038691331926714</v>
       </c>
       <c r="J24">
-        <v>1.023713096878558</v>
+        <v>1.018435636138928</v>
       </c>
       <c r="K24">
-        <v>1.034085955524948</v>
+        <v>1.024751941819366</v>
       </c>
       <c r="L24">
-        <v>1.020134880344849</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>1.035125450233924</v>
+        <v>1.007450264153235</v>
       </c>
       <c r="N24">
-        <v>1.025166886897659</v>
+        <v>1.010145129483258</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015019212651935</v>
+        <v>0.9970468411262096</v>
       </c>
       <c r="D25">
-        <v>1.035484986422366</v>
+        <v>1.015528762415165</v>
       </c>
       <c r="E25">
-        <v>1.021529561080745</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.037406628408115</v>
+        <v>1.001474452953238</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056547047138197</v>
+        <v>1.040484324409737</v>
       </c>
       <c r="J25">
-        <v>1.03905148089833</v>
+        <v>1.021674001220006</v>
       </c>
       <c r="K25">
-        <v>1.047556331228986</v>
+        <v>1.027890703903601</v>
       </c>
       <c r="L25">
-        <v>1.033802604994778</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.049450736936171</v>
+        <v>1.014049922978365</v>
       </c>
       <c r="N25">
-        <v>1.040527053182077</v>
+        <v>1.01122222500064</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002037934403995</v>
+        <v>1.024483449217156</v>
       </c>
       <c r="D2">
-        <v>1.01909618906538</v>
+        <v>1.030238759434109</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>1.007772020858279</v>
+        <v>1.035560546575582</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041835660359607</v>
+        <v>1.03340948704682</v>
       </c>
       <c r="J2">
-        <v>1.024157861593275</v>
+        <v>1.029657809676376</v>
       </c>
       <c r="K2">
-        <v>1.030295742847095</v>
+        <v>1.033050348551973</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.019124130663623</v>
+        <v>1.038356800559069</v>
       </c>
       <c r="N2">
-        <v>1.012048351952851</v>
+        <v>1.013943662199267</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.005567076059143</v>
+        <v>1.025223686306697</v>
       </c>
       <c r="D3">
-        <v>1.021624446501962</v>
+        <v>1.030789887109413</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.012227362562643</v>
+        <v>1.036576525314912</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042773132405747</v>
+        <v>1.033561745334133</v>
       </c>
       <c r="J3">
-        <v>1.02590711894827</v>
+        <v>1.030038055000321</v>
       </c>
       <c r="K3">
-        <v>1.031987917517119</v>
+        <v>1.033410480799456</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.022706146453176</v>
+        <v>1.039181650541821</v>
       </c>
       <c r="N3">
-        <v>1.012630117690016</v>
+        <v>1.014069792001033</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007808844579771</v>
+        <v>1.025703142704302</v>
       </c>
       <c r="D4">
-        <v>1.023232869567038</v>
+        <v>1.031146877991444</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.015058950417127</v>
+        <v>1.03723483652632</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043360108355129</v>
+        <v>1.033659320998349</v>
       </c>
       <c r="J4">
-        <v>1.027014886842265</v>
+        <v>1.030283885486492</v>
       </c>
       <c r="K4">
-        <v>1.033058753000255</v>
+        <v>1.033643178011274</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.024978962080398</v>
+        <v>1.039715682454944</v>
       </c>
       <c r="N4">
-        <v>1.012998514168124</v>
+        <v>1.014151320401119</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.008741561480649</v>
+        <v>1.02590481781283</v>
       </c>
       <c r="D5">
-        <v>1.0239026240748</v>
+        <v>1.03129704486568</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.016237477094619</v>
+        <v>1.037511805934682</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043602257015978</v>
+        <v>1.033700114773508</v>
       </c>
       <c r="J5">
-        <v>1.027474956270723</v>
+        <v>1.030387180364309</v>
       </c>
       <c r="K5">
-        <v>1.033503287831881</v>
+        <v>1.033740923169737</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.02592401359426</v>
+        <v>1.039940259795977</v>
       </c>
       <c r="N5">
-        <v>1.013151506863818</v>
+        <v>1.014185573956615</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008897606811995</v>
+        <v>1.025938686447578</v>
       </c>
       <c r="D6">
-        <v>1.0240147065866</v>
+        <v>1.03132226364918</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.016434672325365</v>
+        <v>1.037558322909351</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043642646518707</v>
+        <v>1.033706950895639</v>
       </c>
       <c r="J6">
-        <v>1.027551877339775</v>
+        <v>1.030404520932154</v>
       </c>
       <c r="K6">
-        <v>1.03357759983378</v>
+        <v>1.033757330242893</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.026082089007594</v>
+        <v>1.039977971408432</v>
       </c>
       <c r="N6">
-        <v>1.013177085962366</v>
+        <v>1.014191324037406</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007821345416134</v>
+        <v>1.02570583706046</v>
       </c>
       <c r="D7">
-        <v>1.023241843898531</v>
+        <v>1.031148884185331</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.01507474406726</v>
+        <v>1.037238536560441</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043363361986559</v>
+        <v>1.033659866979665</v>
       </c>
       <c r="J7">
-        <v>1.027021056280044</v>
+        <v>1.030285265924433</v>
       </c>
       <c r="K7">
-        <v>1.033064714908017</v>
+        <v>1.033644484405616</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.024991630500692</v>
+        <v>1.039718682993551</v>
       </c>
       <c r="N7">
-        <v>1.013000565797693</v>
+        <v>1.014151778181748</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.003239462290109</v>
+        <v>1.024733516732176</v>
       </c>
       <c r="D8">
-        <v>1.019956426306583</v>
+        <v>1.030424937046335</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>1.009288604040804</v>
+        <v>1.035903713176993</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042156599819875</v>
+        <v>1.033461138856267</v>
       </c>
       <c r="J8">
-        <v>1.024754110151836</v>
+        <v>1.029786358939329</v>
       </c>
       <c r="K8">
-        <v>1.030872693600859</v>
+        <v>1.033172125064131</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.020344208272268</v>
+        <v>1.038635499869876</v>
       </c>
       <c r="N8">
-        <v>1.012246655740551</v>
+        <v>1.013986305931158</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9948316419869886</v>
+        <v>1.023023866542729</v>
       </c>
       <c r="D9">
-        <v>1.013948556144189</v>
+        <v>1.029152193716395</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9986801710468415</v>
+        <v>1.033558572421373</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039875819615199</v>
+        <v>1.033103740836073</v>
       </c>
       <c r="J9">
-        <v>1.020568237739395</v>
+        <v>1.028905633574785</v>
       </c>
       <c r="K9">
-        <v>1.026819309977673</v>
+        <v>1.032337272936467</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.011794697910892</v>
+        <v>1.0367291350725</v>
       </c>
       <c r="N9">
-        <v>1.010854442188637</v>
+        <v>1.013694081196959</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9889818052474697</v>
+        <v>1.021886691469261</v>
       </c>
       <c r="D10">
-        <v>1.009785044097545</v>
+        <v>1.028305780710677</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9913017144260238</v>
+        <v>1.031999920134912</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038245696552471</v>
+        <v>1.032860664119079</v>
       </c>
       <c r="J10">
-        <v>1.017639500027343</v>
+        <v>1.028317481876686</v>
       </c>
       <c r="K10">
-        <v>1.023979845823908</v>
+        <v>1.031779096965868</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.005829815395476</v>
+        <v>1.035459871667156</v>
       </c>
       <c r="N10">
-        <v>1.009880335120014</v>
+        <v>1.013498856709165</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9863859497140722</v>
+        <v>1.021394918405619</v>
       </c>
       <c r="D11">
-        <v>1.007941964071018</v>
+        <v>1.027939790305005</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9880272282811443</v>
+        <v>1.031326154791976</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037512436545033</v>
+        <v>1.032754276166458</v>
       </c>
       <c r="J11">
-        <v>1.016336265090481</v>
+        <v>1.028062582051324</v>
       </c>
       <c r="K11">
-        <v>1.022715644817448</v>
+        <v>1.031537033868337</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.00317852162989</v>
+        <v>1.034910671991443</v>
       </c>
       <c r="N11">
-        <v>1.009446888500605</v>
+        <v>1.01341423048936</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9854118574668014</v>
+        <v>1.021212348568475</v>
       </c>
       <c r="D12">
-        <v>1.007251070244629</v>
+        <v>1.027803923866964</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9867983529107641</v>
+        <v>1.031076061059598</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037235825731941</v>
+        <v>1.032714589194782</v>
       </c>
       <c r="J12">
-        <v>1.01584670796631</v>
+        <v>1.027967868027398</v>
       </c>
       <c r="K12">
-        <v>1.022240657330659</v>
+        <v>1.031447066559496</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.002182922798234</v>
+        <v>1.034706736002615</v>
       </c>
       <c r="N12">
-        <v>1.009284068707428</v>
+        <v>1.013382783006051</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9856212577397608</v>
+        <v>1.02125150602018</v>
       </c>
       <c r="D13">
-        <v>1.007399558113989</v>
+        <v>1.02783306408967</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9870625309520377</v>
+        <v>1.031129699178525</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037295353944029</v>
+        <v>1.032723109856129</v>
       </c>
       <c r="J13">
-        <v>1.015951970990406</v>
+        <v>1.027988185977037</v>
       </c>
       <c r="K13">
-        <v>1.022342791685338</v>
+        <v>1.031466367290836</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.002396978869542</v>
+        <v>1.03475047817523</v>
       </c>
       <c r="N13">
-        <v>1.009319077527693</v>
+        <v>1.013389529204242</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9863056350181914</v>
+        <v>1.021379825145782</v>
       </c>
       <c r="D14">
-        <v>1.007884984385926</v>
+        <v>1.027928557927291</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9879259095926598</v>
+        <v>1.031305478435532</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037489659181018</v>
+        <v>1.032750999088117</v>
       </c>
       <c r="J14">
-        <v>1.016295911137144</v>
+        <v>1.028054753624853</v>
       </c>
       <c r="K14">
-        <v>1.022676493668966</v>
+        <v>1.031529598243369</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.003096448270382</v>
+        <v>1.034893813323285</v>
       </c>
       <c r="N14">
-        <v>1.009433467267638</v>
+        <v>1.013411631304459</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9867259803393661</v>
+        <v>1.021458899643208</v>
       </c>
       <c r="D15">
-        <v>1.008183230257077</v>
+        <v>1.027987405312984</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9884561784073973</v>
+        <v>1.031413804760746</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037608810535787</v>
+        <v>1.032768160090196</v>
       </c>
       <c r="J15">
-        <v>1.016507091728381</v>
+        <v>1.028095763826137</v>
       </c>
       <c r="K15">
-        <v>1.022881375989851</v>
+        <v>1.031568549760394</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.003525968997079</v>
+        <v>1.034982134986349</v>
       </c>
       <c r="N15">
-        <v>1.009503703505218</v>
+        <v>1.01342524735582</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9891527231379676</v>
+        <v>1.021919342275805</v>
       </c>
       <c r="D16">
-        <v>1.009906494636418</v>
+        <v>1.028330081227259</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9915173019278301</v>
+        <v>1.032044659874685</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038293772444742</v>
+        <v>1.03286770089699</v>
       </c>
       <c r="J16">
-        <v>1.017725234995377</v>
+        <v>1.028334394066652</v>
       </c>
       <c r="K16">
-        <v>1.024062999368432</v>
+        <v>1.031795154217695</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.006004288274082</v>
+        <v>1.035496328762613</v>
       </c>
       <c r="N16">
-        <v>1.009908850352931</v>
+        <v>1.013504471152637</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9906578319987746</v>
+        <v>1.022208336003505</v>
       </c>
       <c r="D17">
-        <v>1.010976508012311</v>
+        <v>1.028545171106109</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9934157283923275</v>
+        <v>1.032440685071724</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03871600566113</v>
+        <v>1.032929837028587</v>
       </c>
       <c r="J17">
-        <v>1.018479810946773</v>
+        <v>1.02848402072238</v>
       </c>
       <c r="K17">
-        <v>1.024794778082363</v>
+        <v>1.031937199186049</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.007540197121975</v>
+        <v>1.035818976780468</v>
       </c>
       <c r="N17">
-        <v>1.010159822086415</v>
+        <v>1.013554141599705</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9915297043268888</v>
+        <v>1.022376961945198</v>
       </c>
       <c r="D18">
-        <v>1.011596762216879</v>
+        <v>1.028670678676594</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.994515416208928</v>
+        <v>1.032671789912647</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038959651917625</v>
+        <v>1.03296597051272</v>
       </c>
       <c r="J18">
-        <v>1.018916573092177</v>
+        <v>1.028571273513861</v>
       </c>
       <c r="K18">
-        <v>1.025218278459515</v>
+        <v>1.032020015909929</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.008429497078739</v>
+        <v>1.036007210402636</v>
       </c>
       <c r="N18">
-        <v>1.01030509021222</v>
+        <v>1.013583104557791</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9918259798946022</v>
+        <v>1.022434469291775</v>
       </c>
       <c r="D19">
-        <v>1.011807604244545</v>
+        <v>1.028713481820075</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9948891053058624</v>
+        <v>1.032750609318934</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0390422857727</v>
+        <v>1.032978272509511</v>
       </c>
       <c r="J19">
-        <v>1.019064932343286</v>
+        <v>1.028601020711531</v>
       </c>
       <c r="K19">
-        <v>1.025362121399175</v>
+        <v>1.032048248181008</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.008731625865128</v>
+        <v>1.036071399696957</v>
       </c>
       <c r="N19">
-        <v>1.010354435007388</v>
+        <v>1.013592978643997</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9904969750665054</v>
+        <v>1.022177323411234</v>
       </c>
       <c r="D20">
-        <v>1.010862107356352</v>
+        <v>1.028522088887332</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9932128390727241</v>
+        <v>1.032398183924745</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038670977508173</v>
+        <v>1.032923181728107</v>
       </c>
       <c r="J20">
-        <v>1.0183992020522</v>
+        <v>1.028467969456006</v>
       </c>
       <c r="K20">
-        <v>1.024716611348567</v>
+        <v>1.031921962789693</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.007376091720219</v>
+        <v>1.035784355711809</v>
       </c>
       <c r="N20">
-        <v>1.010133011461234</v>
+        <v>1.01354881335612</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9861043792162314</v>
+        <v>1.02134203568167</v>
       </c>
       <c r="D21">
-        <v>1.007742214166778</v>
+        <v>1.027900435185688</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9876720187965558</v>
+        <v>1.031253711047785</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037432559392212</v>
+        <v>1.032742791085171</v>
       </c>
       <c r="J21">
-        <v>1.016194782282757</v>
+        <v>1.028035152010419</v>
       </c>
       <c r="K21">
-        <v>1.022578377630466</v>
+        <v>1.031510979793264</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.002890774045766</v>
+        <v>1.034851602995258</v>
       </c>
       <c r="N21">
-        <v>1.00939983310309</v>
+        <v>1.013405123157359</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9832852062516223</v>
+        <v>1.020817416746343</v>
       </c>
       <c r="D22">
-        <v>1.005744079484934</v>
+        <v>1.027510033004365</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9841151270855997</v>
+        <v>1.030535135419856</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036629285090808</v>
+        <v>1.0326283905303</v>
       </c>
       <c r="J22">
-        <v>1.014776971709306</v>
+        <v>1.027762832824555</v>
       </c>
       <c r="K22">
-        <v>1.021202597456679</v>
+        <v>1.031252264908757</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.000007973837185</v>
+        <v>1.03426549914409</v>
       </c>
       <c r="N22">
-        <v>1.008928297338165</v>
+        <v>1.01331470129841</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9847852936848763</v>
+        <v>1.021095473545097</v>
       </c>
       <c r="D23">
-        <v>1.006806876797562</v>
+        <v>1.027716948757317</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9860078588232601</v>
+        <v>1.030915970763677</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037057495579458</v>
+        <v>1.032689129277674</v>
       </c>
       <c r="J23">
-        <v>1.015531667499975</v>
+        <v>1.027907211985262</v>
       </c>
       <c r="K23">
-        <v>1.021934967758536</v>
+        <v>1.031389443894414</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.001542321356773</v>
+        <v>1.03457616986354</v>
       </c>
       <c r="N23">
-        <v>1.009179291828728</v>
+        <v>1.013362642910867</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9905696780002679</v>
+        <v>1.022191336479148</v>
       </c>
       <c r="D24">
-        <v>1.010913812019849</v>
+        <v>1.028532518596391</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9933045395631517</v>
+        <v>1.032417388023712</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038691331926714</v>
+        <v>1.032926189310242</v>
       </c>
       <c r="J24">
-        <v>1.018435636138928</v>
+        <v>1.028475222400185</v>
       </c>
       <c r="K24">
-        <v>1.024751941819366</v>
+        <v>1.031928847571828</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.007450264153235</v>
+        <v>1.035799999363658</v>
       </c>
       <c r="N24">
-        <v>1.010145129483258</v>
+        <v>1.01355122098782</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9970468411262096</v>
+        <v>1.023465402787058</v>
       </c>
       <c r="D25">
-        <v>1.015528762415165</v>
+        <v>1.029480868848186</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.001474452953238</v>
+        <v>1.034164011508593</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040484324409737</v>
+        <v>1.03319698766603</v>
       </c>
       <c r="J25">
-        <v>1.021674001220006</v>
+        <v>1.029133503527663</v>
       </c>
       <c r="K25">
-        <v>1.027890703903601</v>
+        <v>1.032553390696885</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.014049922978365</v>
+        <v>1.037221691130707</v>
       </c>
       <c r="N25">
-        <v>1.01122222500064</v>
+        <v>1.013769701911783</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024483449217156</v>
+        <v>1.002037934403995</v>
       </c>
       <c r="D2">
-        <v>1.030238759434109</v>
+        <v>1.019096189065379</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.035560546575582</v>
+        <v>1.007772020858279</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03340948704682</v>
+        <v>1.041835660359607</v>
       </c>
       <c r="J2">
-        <v>1.029657809676376</v>
+        <v>1.024157861593275</v>
       </c>
       <c r="K2">
-        <v>1.033050348551973</v>
+        <v>1.030295742847094</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.038356800559069</v>
+        <v>1.019124130663623</v>
       </c>
       <c r="N2">
-        <v>1.013943662199267</v>
+        <v>1.01204835195285</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025223686306697</v>
+        <v>1.005567076059143</v>
       </c>
       <c r="D3">
-        <v>1.030789887109413</v>
+        <v>1.021624446501962</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.036576525314912</v>
+        <v>1.012227362562643</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033561745334133</v>
+        <v>1.042773132405747</v>
       </c>
       <c r="J3">
-        <v>1.030038055000321</v>
+        <v>1.02590711894827</v>
       </c>
       <c r="K3">
-        <v>1.033410480799456</v>
+        <v>1.031987917517119</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.039181650541821</v>
+        <v>1.022706146453176</v>
       </c>
       <c r="N3">
-        <v>1.014069792001033</v>
+        <v>1.012630117690016</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025703142704302</v>
+        <v>1.007808844579771</v>
       </c>
       <c r="D4">
-        <v>1.031146877991444</v>
+        <v>1.023232869567039</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.03723483652632</v>
+        <v>1.015058950417127</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033659320998349</v>
+        <v>1.043360108355128</v>
       </c>
       <c r="J4">
-        <v>1.030283885486492</v>
+        <v>1.027014886842266</v>
       </c>
       <c r="K4">
-        <v>1.033643178011274</v>
+        <v>1.033058753000256</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.039715682454944</v>
+        <v>1.024978962080399</v>
       </c>
       <c r="N4">
-        <v>1.014151320401119</v>
+        <v>1.012998514168124</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02590481781283</v>
+        <v>1.008741561480649</v>
       </c>
       <c r="D5">
-        <v>1.03129704486568</v>
+        <v>1.0239026240748</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.037511805934682</v>
+        <v>1.016237477094619</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033700114773508</v>
+        <v>1.043602257015978</v>
       </c>
       <c r="J5">
-        <v>1.030387180364309</v>
+        <v>1.027474956270723</v>
       </c>
       <c r="K5">
-        <v>1.033740923169737</v>
+        <v>1.033503287831881</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.039940259795977</v>
+        <v>1.025924013594261</v>
       </c>
       <c r="N5">
-        <v>1.014185573956615</v>
+        <v>1.013151506863818</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025938686447578</v>
+        <v>1.008897606811995</v>
       </c>
       <c r="D6">
-        <v>1.03132226364918</v>
+        <v>1.0240147065866</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.037558322909351</v>
+        <v>1.016434672325365</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033706950895639</v>
+        <v>1.043642646518707</v>
       </c>
       <c r="J6">
-        <v>1.030404520932154</v>
+        <v>1.027551877339775</v>
       </c>
       <c r="K6">
-        <v>1.033757330242893</v>
+        <v>1.033577599833779</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.039977971408432</v>
+        <v>1.026082089007594</v>
       </c>
       <c r="N6">
-        <v>1.014191324037406</v>
+        <v>1.013177085962366</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02570583706046</v>
+        <v>1.007821345416134</v>
       </c>
       <c r="D7">
-        <v>1.031148884185331</v>
+        <v>1.023241843898531</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.037238536560441</v>
+        <v>1.015074744067261</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033659866979665</v>
+        <v>1.043363361986559</v>
       </c>
       <c r="J7">
-        <v>1.030285265924433</v>
+        <v>1.027021056280044</v>
       </c>
       <c r="K7">
-        <v>1.033644484405616</v>
+        <v>1.033064714908018</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.039718682993551</v>
+        <v>1.024991630500692</v>
       </c>
       <c r="N7">
-        <v>1.014151778181748</v>
+        <v>1.013000565797693</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024733516732176</v>
+        <v>1.003239462290109</v>
       </c>
       <c r="D8">
-        <v>1.030424937046335</v>
+        <v>1.019956426306582</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.035903713176993</v>
+        <v>1.009288604040804</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033461138856267</v>
+        <v>1.042156599819875</v>
       </c>
       <c r="J8">
-        <v>1.029786358939329</v>
+        <v>1.024754110151836</v>
       </c>
       <c r="K8">
-        <v>1.033172125064131</v>
+        <v>1.030872693600859</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.038635499869876</v>
+        <v>1.020344208272268</v>
       </c>
       <c r="N8">
-        <v>1.013986305931158</v>
+        <v>1.012246655740551</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023023866542729</v>
+        <v>0.9948316419869881</v>
       </c>
       <c r="D9">
-        <v>1.029152193716395</v>
+        <v>1.013948556144189</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.033558572421373</v>
+        <v>0.9986801710468413</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033103740836073</v>
+        <v>1.039875819615199</v>
       </c>
       <c r="J9">
-        <v>1.028905633574785</v>
+        <v>1.020568237739394</v>
       </c>
       <c r="K9">
-        <v>1.032337272936467</v>
+        <v>1.026819309977672</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.0367291350725</v>
+        <v>1.011794697910892</v>
       </c>
       <c r="N9">
-        <v>1.013694081196959</v>
+        <v>1.010854442188637</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021886691469261</v>
+        <v>0.9889818052474698</v>
       </c>
       <c r="D10">
-        <v>1.028305780710677</v>
+        <v>1.009785044097545</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.031999920134912</v>
+        <v>0.9913017144260233</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032860664119079</v>
+        <v>1.038245696552471</v>
       </c>
       <c r="J10">
-        <v>1.028317481876686</v>
+        <v>1.017639500027343</v>
       </c>
       <c r="K10">
-        <v>1.031779096965868</v>
+        <v>1.023979845823908</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.035459871667156</v>
+        <v>1.005829815395476</v>
       </c>
       <c r="N10">
-        <v>1.013498856709165</v>
+        <v>1.009880335120014</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.021394918405619</v>
+        <v>0.9863859497140722</v>
       </c>
       <c r="D11">
-        <v>1.027939790305005</v>
+        <v>1.007941964071018</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.031326154791976</v>
+        <v>0.9880272282811442</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032754276166458</v>
+        <v>1.037512436545033</v>
       </c>
       <c r="J11">
-        <v>1.028062582051324</v>
+        <v>1.016336265090481</v>
       </c>
       <c r="K11">
-        <v>1.031537033868337</v>
+        <v>1.022715644817448</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.034910671991443</v>
+        <v>1.00317852162989</v>
       </c>
       <c r="N11">
-        <v>1.01341423048936</v>
+        <v>1.009446888500605</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.021212348568475</v>
+        <v>0.9854118574668012</v>
       </c>
       <c r="D12">
-        <v>1.027803923866964</v>
+        <v>1.007251070244629</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.031076061059598</v>
+        <v>0.9867983529107642</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032714589194782</v>
+        <v>1.037235825731941</v>
       </c>
       <c r="J12">
-        <v>1.027967868027398</v>
+        <v>1.01584670796631</v>
       </c>
       <c r="K12">
-        <v>1.031447066559496</v>
+        <v>1.022240657330658</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.034706736002615</v>
+        <v>1.002182922798234</v>
       </c>
       <c r="N12">
-        <v>1.013382783006051</v>
+        <v>1.009284068707428</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02125150602018</v>
+        <v>0.9856212577397609</v>
       </c>
       <c r="D13">
-        <v>1.02783306408967</v>
+        <v>1.007399558113989</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.031129699178525</v>
+        <v>0.9870625309520378</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032723109856129</v>
+        <v>1.037295353944029</v>
       </c>
       <c r="J13">
-        <v>1.027988185977037</v>
+        <v>1.015951970990407</v>
       </c>
       <c r="K13">
-        <v>1.031466367290836</v>
+        <v>1.022342791685338</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.03475047817523</v>
+        <v>1.002396978869543</v>
       </c>
       <c r="N13">
-        <v>1.013389529204242</v>
+        <v>1.009319077527693</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021379825145782</v>
+        <v>0.9863056350181915</v>
       </c>
       <c r="D14">
-        <v>1.027928557927291</v>
+        <v>1.007884984385925</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.031305478435532</v>
+        <v>0.98792590959266</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032750999088117</v>
+        <v>1.037489659181018</v>
       </c>
       <c r="J14">
-        <v>1.028054753624853</v>
+        <v>1.016295911137144</v>
       </c>
       <c r="K14">
-        <v>1.031529598243369</v>
+        <v>1.022676493668966</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.034893813323285</v>
+        <v>1.003096448270382</v>
       </c>
       <c r="N14">
-        <v>1.013411631304459</v>
+        <v>1.009433467267638</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.021458899643208</v>
+        <v>0.9867259803393656</v>
       </c>
       <c r="D15">
-        <v>1.027987405312984</v>
+        <v>1.008183230257077</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.031413804760746</v>
+        <v>0.9884561784073967</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032768160090196</v>
+        <v>1.037608810535786</v>
       </c>
       <c r="J15">
-        <v>1.028095763826137</v>
+        <v>1.016507091728381</v>
       </c>
       <c r="K15">
-        <v>1.031568549760394</v>
+        <v>1.022881375989851</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.034982134986349</v>
+        <v>1.003525968997078</v>
       </c>
       <c r="N15">
-        <v>1.01342524735582</v>
+        <v>1.009503703505218</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021919342275805</v>
+        <v>0.989152723137968</v>
       </c>
       <c r="D16">
-        <v>1.028330081227259</v>
+        <v>1.009906494636419</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.032044659874685</v>
+        <v>0.9915173019278306</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03286770089699</v>
+        <v>1.038293772444743</v>
       </c>
       <c r="J16">
-        <v>1.028334394066652</v>
+        <v>1.017725234995377</v>
       </c>
       <c r="K16">
-        <v>1.031795154217695</v>
+        <v>1.024062999368432</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.035496328762613</v>
+        <v>1.006004288274082</v>
       </c>
       <c r="N16">
-        <v>1.013504471152637</v>
+        <v>1.009908850352931</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022208336003505</v>
+        <v>0.9906578319987741</v>
       </c>
       <c r="D17">
-        <v>1.028545171106109</v>
+        <v>1.010976508012311</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.032440685071724</v>
+        <v>0.9934157283923273</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032929837028587</v>
+        <v>1.03871600566113</v>
       </c>
       <c r="J17">
-        <v>1.02848402072238</v>
+        <v>1.018479810946772</v>
       </c>
       <c r="K17">
-        <v>1.031937199186049</v>
+        <v>1.024794778082362</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.035818976780468</v>
+        <v>1.007540197121975</v>
       </c>
       <c r="N17">
-        <v>1.013554141599705</v>
+        <v>1.010159822086415</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022376961945198</v>
+        <v>0.9915297043268883</v>
       </c>
       <c r="D18">
-        <v>1.028670678676594</v>
+        <v>1.011596762216879</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.032671789912647</v>
+        <v>0.994515416208928</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03296597051272</v>
+        <v>1.038959651917625</v>
       </c>
       <c r="J18">
-        <v>1.028571273513861</v>
+        <v>1.018916573092177</v>
       </c>
       <c r="K18">
-        <v>1.032020015909929</v>
+        <v>1.025218278459515</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.036007210402636</v>
+        <v>1.008429497078739</v>
       </c>
       <c r="N18">
-        <v>1.013583104557791</v>
+        <v>1.01030509021222</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022434469291775</v>
+        <v>0.991825979894602</v>
       </c>
       <c r="D19">
-        <v>1.028713481820075</v>
+        <v>1.011807604244545</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.032750609318934</v>
+        <v>0.9948891053058625</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032978272509511</v>
+        <v>1.0390422857727</v>
       </c>
       <c r="J19">
-        <v>1.028601020711531</v>
+        <v>1.019064932343286</v>
       </c>
       <c r="K19">
-        <v>1.032048248181008</v>
+        <v>1.025362121399175</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.036071399696957</v>
+        <v>1.008731625865128</v>
       </c>
       <c r="N19">
-        <v>1.013592978643997</v>
+        <v>1.010354435007388</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022177323411234</v>
+        <v>0.9904969750665057</v>
       </c>
       <c r="D20">
-        <v>1.028522088887332</v>
+        <v>1.010862107356353</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.032398183924745</v>
+        <v>0.9932128390727247</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032923181728107</v>
+        <v>1.038670977508174</v>
       </c>
       <c r="J20">
-        <v>1.028467969456006</v>
+        <v>1.0183992020522</v>
       </c>
       <c r="K20">
-        <v>1.031921962789693</v>
+        <v>1.024716611348567</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.035784355711809</v>
+        <v>1.007376091720219</v>
       </c>
       <c r="N20">
-        <v>1.01354881335612</v>
+        <v>1.010133011461234</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.02134203568167</v>
+        <v>0.9861043792162321</v>
       </c>
       <c r="D21">
-        <v>1.027900435185688</v>
+        <v>1.007742214166778</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.031253711047785</v>
+        <v>0.987672018796556</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032742791085171</v>
+        <v>1.037432559392212</v>
       </c>
       <c r="J21">
-        <v>1.028035152010419</v>
+        <v>1.016194782282757</v>
       </c>
       <c r="K21">
-        <v>1.031510979793264</v>
+        <v>1.022578377630466</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.034851602995258</v>
+        <v>1.002890774045767</v>
       </c>
       <c r="N21">
-        <v>1.013405123157359</v>
+        <v>1.00939983310309</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020817416746343</v>
+        <v>0.9832852062516219</v>
       </c>
       <c r="D22">
-        <v>1.027510033004365</v>
+        <v>1.005744079484933</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.030535135419856</v>
+        <v>0.9841151270855992</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0326283905303</v>
+        <v>1.036629285090808</v>
       </c>
       <c r="J22">
-        <v>1.027762832824555</v>
+        <v>1.014776971709305</v>
       </c>
       <c r="K22">
-        <v>1.031252264908757</v>
+        <v>1.021202597456679</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.03426549914409</v>
+        <v>1.000007973837184</v>
       </c>
       <c r="N22">
-        <v>1.01331470129841</v>
+        <v>1.008928297338165</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.021095473545097</v>
+        <v>0.9847852936848764</v>
       </c>
       <c r="D23">
-        <v>1.027716948757317</v>
+        <v>1.006806876797562</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.030915970763677</v>
+        <v>0.9860078588232603</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032689129277674</v>
+        <v>1.037057495579458</v>
       </c>
       <c r="J23">
-        <v>1.027907211985262</v>
+        <v>1.015531667499975</v>
       </c>
       <c r="K23">
-        <v>1.031389443894414</v>
+        <v>1.021934967758537</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.03457616986354</v>
+        <v>1.001542321356774</v>
       </c>
       <c r="N23">
-        <v>1.013362642910867</v>
+        <v>1.009179291828728</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022191336479148</v>
+        <v>0.9905696780002677</v>
       </c>
       <c r="D24">
-        <v>1.028532518596391</v>
+        <v>1.010913812019849</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.032417388023712</v>
+        <v>0.9933045395631513</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032926189310242</v>
+        <v>1.038691331926714</v>
       </c>
       <c r="J24">
-        <v>1.028475222400185</v>
+        <v>1.018435636138928</v>
       </c>
       <c r="K24">
-        <v>1.031928847571828</v>
+        <v>1.024751941819366</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.035799999363658</v>
+        <v>1.007450264153234</v>
       </c>
       <c r="N24">
-        <v>1.01355122098782</v>
+        <v>1.010145129483258</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023465402787058</v>
+        <v>0.9970468411262091</v>
       </c>
       <c r="D25">
-        <v>1.029480868848186</v>
+        <v>1.015528762415165</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.034164011508593</v>
+        <v>1.001474452953238</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03319698766603</v>
+        <v>1.040484324409736</v>
       </c>
       <c r="J25">
-        <v>1.029133503527663</v>
+        <v>1.021674001220005</v>
       </c>
       <c r="K25">
-        <v>1.032553390696885</v>
+        <v>1.027890703903601</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.037221691130707</v>
+        <v>1.014049922978365</v>
       </c>
       <c r="N25">
-        <v>1.013769701911783</v>
+        <v>1.01122222500064</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002037934403995</v>
+        <v>1.012176613378251</v>
       </c>
       <c r="D2">
-        <v>1.019096189065379</v>
+        <v>1.034445383501676</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>1.031405783803611</v>
       </c>
       <c r="F2">
-        <v>1.007772020858279</v>
+        <v>1.041552129531481</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041835660359607</v>
+        <v>1.055559716173994</v>
       </c>
       <c r="J2">
-        <v>1.024157861593275</v>
+        <v>1.033999125119479</v>
       </c>
       <c r="K2">
-        <v>1.030295742847094</v>
+        <v>1.045444823748477</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>1.042444260880916</v>
       </c>
       <c r="M2">
-        <v>1.019124130663623</v>
+        <v>1.052461408826581</v>
       </c>
       <c r="N2">
-        <v>1.01204835195285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014858874531406</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.050092013885272</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.043203703351871</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005567076059143</v>
+        <v>1.016588697024794</v>
       </c>
       <c r="D3">
-        <v>1.021624446501962</v>
+        <v>1.037407982856648</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>1.034687527761019</v>
       </c>
       <c r="F3">
-        <v>1.012227362562643</v>
+        <v>1.044628601829536</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042773132405747</v>
+        <v>1.056632519174243</v>
       </c>
       <c r="J3">
-        <v>1.02590711894827</v>
+        <v>1.036637130590638</v>
       </c>
       <c r="K3">
-        <v>1.031987917517119</v>
+        <v>1.047583589965088</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>1.044895009057289</v>
       </c>
       <c r="M3">
-        <v>1.022706146453176</v>
+        <v>1.054720602747362</v>
       </c>
       <c r="N3">
-        <v>1.012630117690016</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015773050219026</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.051879988877783</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.044713332245088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007808844579771</v>
+        <v>1.019387768993004</v>
       </c>
       <c r="D4">
-        <v>1.023232869567039</v>
+        <v>1.039290404123972</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>1.036780255886901</v>
       </c>
       <c r="F4">
-        <v>1.015058950417127</v>
+        <v>1.046587687499543</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043360108355128</v>
+        <v>1.057300618095521</v>
       </c>
       <c r="J4">
-        <v>1.027014886842266</v>
+        <v>1.038308207763285</v>
       </c>
       <c r="K4">
-        <v>1.033058753000256</v>
+        <v>1.048936672792458</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>1.046454151304971</v>
       </c>
       <c r="M4">
-        <v>1.024978962080399</v>
+        <v>1.056154564992539</v>
       </c>
       <c r="N4">
-        <v>1.012998514168124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016352043942977</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.053014855441738</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.045670955074462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008741561480649</v>
+        <v>1.020556018962155</v>
       </c>
       <c r="D5">
-        <v>1.0239026240748</v>
+        <v>1.040078392272885</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>1.037656194228901</v>
       </c>
       <c r="F5">
-        <v>1.016237477094619</v>
+        <v>1.047407211352296</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043602257015978</v>
+        <v>1.057577760577009</v>
       </c>
       <c r="J5">
-        <v>1.027474956270723</v>
+        <v>1.039006714615464</v>
       </c>
       <c r="K5">
-        <v>1.033503287831881</v>
+        <v>1.049502928616519</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>1.04710667588163</v>
       </c>
       <c r="M5">
-        <v>1.025924013594261</v>
+        <v>1.056754138754446</v>
       </c>
       <c r="N5">
-        <v>1.013151506863818</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016594996283716</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.053489369670214</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.046078452598192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008897606811995</v>
+        <v>1.020756825555531</v>
       </c>
       <c r="D6">
-        <v>1.0240147065866</v>
+        <v>1.040215905419383</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>1.037806873992007</v>
       </c>
       <c r="F6">
-        <v>1.016434672325365</v>
+        <v>1.047548362618721</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043642646518707</v>
+        <v>1.057626864108778</v>
       </c>
       <c r="J6">
-        <v>1.027551877339775</v>
+        <v>1.039128785625284</v>
       </c>
       <c r="K6">
-        <v>1.033577599833779</v>
+        <v>1.049603200593025</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>1.047219854594973</v>
       </c>
       <c r="M6">
-        <v>1.026082089007594</v>
+        <v>1.056858366502407</v>
       </c>
       <c r="N6">
-        <v>1.013177085962366</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016638623865918</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.053571857487912</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.046158025242599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007821345416134</v>
+        <v>1.019417963129425</v>
       </c>
       <c r="D7">
-        <v>1.023241843898531</v>
+        <v>1.039316192690968</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.036802849901085</v>
       </c>
       <c r="F7">
-        <v>1.015074744067261</v>
+        <v>1.046609354956779</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043363361986559</v>
+        <v>1.057312200261494</v>
       </c>
       <c r="J7">
-        <v>1.027021056280044</v>
+        <v>1.038331754570502</v>
       </c>
       <c r="K7">
-        <v>1.033064714908018</v>
+        <v>1.048959328213138</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.046473636545085</v>
       </c>
       <c r="M7">
-        <v>1.024991630500692</v>
+        <v>1.056173174935854</v>
       </c>
       <c r="N7">
-        <v>1.013000565797693</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01636342989388</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.053029583713964</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.045706926692713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003239462290109</v>
+        <v>1.013697779883785</v>
       </c>
       <c r="D8">
-        <v>1.019956426306582</v>
+        <v>1.03547282721239</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>1.032535174516075</v>
       </c>
       <c r="F8">
-        <v>1.009288604040804</v>
+        <v>1.042611869241309</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042156599819875</v>
+        <v>1.055937486854164</v>
       </c>
       <c r="J8">
-        <v>1.024754110151836</v>
+        <v>1.034915965125837</v>
       </c>
       <c r="K8">
-        <v>1.030872693600859</v>
+        <v>1.046192814128697</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>1.043291757992837</v>
       </c>
       <c r="M8">
-        <v>1.020344208272268</v>
+        <v>1.05324398841474</v>
       </c>
       <c r="N8">
-        <v>1.012246655740551</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015180833055108</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.050711364801887</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.043755343544666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9948316419869881</v>
+        <v>1.003145403561141</v>
       </c>
       <c r="D9">
-        <v>1.013948556144189</v>
+        <v>1.028400100950175</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925935</v>
+        <v>1.024750920460166</v>
       </c>
       <c r="F9">
-        <v>0.9986801710468413</v>
+        <v>1.035298132120397</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039875819615199</v>
+        <v>1.05329757066267</v>
       </c>
       <c r="J9">
-        <v>1.020568237739394</v>
+        <v>1.028587576371019</v>
       </c>
       <c r="K9">
-        <v>1.026819309977672</v>
+        <v>1.04104861818489</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834084</v>
+        <v>1.037454800709512</v>
       </c>
       <c r="M9">
-        <v>1.011794697910892</v>
+        <v>1.047843352318544</v>
       </c>
       <c r="N9">
-        <v>1.010854442188637</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012983761856111</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.046437170601614</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.040114929654115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9889818052474698</v>
+        <v>0.9958486598953908</v>
       </c>
       <c r="D10">
-        <v>1.009785044097545</v>
+        <v>1.023549593179735</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>1.019485959277386</v>
       </c>
       <c r="F10">
-        <v>0.9913017144260233</v>
+        <v>1.030348463228196</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038245696552471</v>
+        <v>1.051430179325302</v>
       </c>
       <c r="J10">
-        <v>1.017639500027343</v>
+        <v>1.024227958073407</v>
       </c>
       <c r="K10">
-        <v>1.023979845823908</v>
+        <v>1.037506283610834</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>1.03351208137576</v>
       </c>
       <c r="M10">
-        <v>1.005829815395476</v>
+        <v>1.044190565626683</v>
       </c>
       <c r="N10">
-        <v>1.009880335120014</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011484836337356</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.043597373558026</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.037627037860774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9863859497140722</v>
+        <v>0.993160800850086</v>
       </c>
       <c r="D11">
-        <v>1.007941964071018</v>
+        <v>1.021909139719738</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016256</v>
+        <v>1.01798907636972</v>
       </c>
       <c r="F11">
-        <v>0.9880272282811442</v>
+        <v>1.029030892826502</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037512436545033</v>
+        <v>1.050879950802742</v>
       </c>
       <c r="J11">
-        <v>1.016336265090481</v>
+        <v>1.022820892532514</v>
       </c>
       <c r="K11">
-        <v>1.022715644817448</v>
+        <v>1.036429380561289</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>1.03257953592164</v>
       </c>
       <c r="M11">
-        <v>1.00317852162989</v>
+        <v>1.04342533754308</v>
       </c>
       <c r="N11">
-        <v>1.009446888500605</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011118120211179</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.043425517465543</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.036898376116632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9854118574668012</v>
+        <v>0.9923392371197389</v>
       </c>
       <c r="D12">
-        <v>1.007251070244629</v>
+        <v>1.021462756020064</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>1.017722015414368</v>
       </c>
       <c r="F12">
-        <v>0.9867983529107642</v>
+        <v>1.028844690816366</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037235825731941</v>
+        <v>1.050769786935412</v>
       </c>
       <c r="J12">
-        <v>1.01584670796631</v>
+        <v>1.022471390492021</v>
       </c>
       <c r="K12">
-        <v>1.022240657330658</v>
+        <v>1.036190000214125</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>1.032517387347116</v>
       </c>
       <c r="M12">
-        <v>1.002182922798234</v>
+        <v>1.043439378861967</v>
       </c>
       <c r="N12">
-        <v>1.009284068707428</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011087634733812</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.043761334847042</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.036729127272384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9856212577397609</v>
+        <v>0.9929241820320243</v>
       </c>
       <c r="D13">
-        <v>1.007399558113989</v>
+        <v>1.021929404430487</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368229</v>
+        <v>1.018403029803809</v>
       </c>
       <c r="F13">
-        <v>0.9870625309520378</v>
+        <v>1.029541876011952</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037295353944029</v>
+        <v>1.051009014039532</v>
       </c>
       <c r="J13">
-        <v>1.015951970990407</v>
+        <v>1.022937323002253</v>
       </c>
       <c r="K13">
-        <v>1.022342791685338</v>
+        <v>1.036605529787177</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>1.033143070499174</v>
       </c>
       <c r="M13">
-        <v>1.002396978869543</v>
+        <v>1.044081962058363</v>
       </c>
       <c r="N13">
-        <v>1.009319077527693</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011326617369302</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.044544790673722</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.037020432694849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9863056350181915</v>
+        <v>0.9939708873751936</v>
       </c>
       <c r="D14">
-        <v>1.007884984385925</v>
+        <v>1.02267028214955</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>1.019307156557465</v>
       </c>
       <c r="F14">
-        <v>0.98792590959266</v>
+        <v>1.030429388824299</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037489659181018</v>
+        <v>1.051334647699666</v>
       </c>
       <c r="J14">
-        <v>1.016295911137144</v>
+        <v>1.023632669325149</v>
       </c>
       <c r="K14">
-        <v>1.022676493668966</v>
+        <v>1.037193395471171</v>
       </c>
       <c r="L14">
-        <v>0.949074550976452</v>
+        <v>1.033890431452659</v>
       </c>
       <c r="M14">
-        <v>1.003096448270382</v>
+        <v>1.044815643024103</v>
       </c>
       <c r="N14">
-        <v>1.009433467267638</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011615819997539</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.04529734414132</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.037437491652984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9867259803393656</v>
+        <v>0.9945390111198321</v>
       </c>
       <c r="D15">
-        <v>1.008183230257077</v>
+        <v>1.023058351388784</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>1.01974573988631</v>
       </c>
       <c r="F15">
-        <v>0.9884561784073967</v>
+        <v>1.030851708700132</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037608810535786</v>
+        <v>1.051495107942136</v>
       </c>
       <c r="J15">
-        <v>1.016507091728381</v>
+        <v>1.023988275787299</v>
       </c>
       <c r="K15">
-        <v>1.022881375989851</v>
+        <v>1.037488551295324</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782941</v>
+        <v>1.034234731632922</v>
       </c>
       <c r="M15">
-        <v>1.003525968997078</v>
+        <v>1.045145521250354</v>
       </c>
       <c r="N15">
-        <v>1.009503703505218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011749339070787</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.045595469739885</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.037652028456314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.989152723137968</v>
+        <v>0.9975296209598956</v>
       </c>
       <c r="D16">
-        <v>1.009906494636419</v>
+        <v>1.025036695579976</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017261</v>
+        <v>1.021855435838302</v>
       </c>
       <c r="F16">
-        <v>0.9915173019278306</v>
+        <v>1.032843623980785</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038293772444743</v>
+        <v>1.052265052213173</v>
       </c>
       <c r="J16">
-        <v>1.017725234995377</v>
+        <v>1.025764496146317</v>
       </c>
       <c r="K16">
-        <v>1.024062999368432</v>
+        <v>1.038932759688038</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175717</v>
+        <v>1.035805433040202</v>
       </c>
       <c r="M16">
-        <v>1.006004288274082</v>
+        <v>1.046609146888312</v>
       </c>
       <c r="N16">
-        <v>1.009908850352931</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012345064943496</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.04671376961852</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.038676280565045</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9906578319987741</v>
+        <v>0.9992757541697783</v>
       </c>
       <c r="D17">
-        <v>1.010976508012311</v>
+        <v>1.02616657322937</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>1.023001015864962</v>
       </c>
       <c r="F17">
-        <v>0.9934157283923273</v>
+        <v>1.033903319878711</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03871600566113</v>
+        <v>1.052681384791174</v>
       </c>
       <c r="J17">
-        <v>1.018479810946772</v>
+        <v>1.026761792555117</v>
       </c>
       <c r="K17">
-        <v>1.024794778082362</v>
+        <v>1.039730852173637</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068056</v>
+        <v>1.036617424953567</v>
       </c>
       <c r="M17">
-        <v>1.007540197121975</v>
+        <v>1.047341914480015</v>
       </c>
       <c r="N17">
-        <v>1.010159822086415</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012650443583382</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.047164544044619</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.039243132166318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9915297043268883</v>
+        <v>1.000100410430421</v>
       </c>
       <c r="D18">
-        <v>1.011596762216879</v>
+        <v>1.02664914910287</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>1.023385894674786</v>
       </c>
       <c r="F18">
-        <v>0.994515416208928</v>
+        <v>1.034218229013398</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038959651917625</v>
+        <v>1.05282133193123</v>
       </c>
       <c r="J18">
-        <v>1.018916573092177</v>
+        <v>1.02715962491693</v>
       </c>
       <c r="K18">
-        <v>1.025218278459515</v>
+        <v>1.040023209541254</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>1.03681280796507</v>
       </c>
       <c r="M18">
-        <v>1.008429497078739</v>
+        <v>1.047471342292929</v>
       </c>
       <c r="N18">
-        <v>1.01030509021222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012721478544589</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.047030464108095</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.039438246985636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.991825979894602</v>
+        <v>1.00010275986146</v>
       </c>
       <c r="D19">
-        <v>1.011807604244545</v>
+        <v>1.026558668966744</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>1.023085300716344</v>
       </c>
       <c r="F19">
-        <v>0.9948891053058625</v>
+        <v>1.033863258979905</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0390422857727</v>
+        <v>1.052720044740282</v>
       </c>
       <c r="J19">
-        <v>1.019064932343286</v>
+        <v>1.0270272810789</v>
       </c>
       <c r="K19">
-        <v>1.025362121399175</v>
+        <v>1.039872016269135</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>1.036454631520912</v>
       </c>
       <c r="M19">
-        <v>1.008731625865128</v>
+        <v>1.047060442488681</v>
       </c>
       <c r="N19">
-        <v>1.010354435007388</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012593181605039</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.046382072679234</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.03933771822306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9904969750665057</v>
+        <v>0.9977819653217227</v>
       </c>
       <c r="D20">
-        <v>1.010862107356353</v>
+        <v>1.024846970596633</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>1.020880464963626</v>
       </c>
       <c r="F20">
-        <v>0.9932128390727247</v>
+        <v>1.031661079732545</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038670977508174</v>
+        <v>1.051940203423121</v>
       </c>
       <c r="J20">
-        <v>1.0183992020522</v>
+        <v>1.025398657053176</v>
       </c>
       <c r="K20">
-        <v>1.024716611348567</v>
+        <v>1.038466547115996</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>1.034565831248326</v>
       </c>
       <c r="M20">
-        <v>1.007376091720219</v>
+        <v>1.045169151997247</v>
       </c>
       <c r="N20">
-        <v>1.010133011461234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011897642110219</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.044361332462403</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.038347916168669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9861043792162321</v>
+        <v>0.9921786168803772</v>
       </c>
       <c r="D21">
-        <v>1.007742214166778</v>
+        <v>1.021100998553058</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148896</v>
+        <v>1.016779478743373</v>
       </c>
       <c r="F21">
-        <v>0.987672018796556</v>
+        <v>1.027780955178408</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037432559392212</v>
+        <v>1.050454560330592</v>
       </c>
       <c r="J21">
-        <v>1.016194782282757</v>
+        <v>1.0220070261435</v>
       </c>
       <c r="K21">
-        <v>1.022578377630466</v>
+        <v>1.035693337813667</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>1.031449782355035</v>
       </c>
       <c r="M21">
-        <v>1.002890774045767</v>
+        <v>1.04225445424054</v>
       </c>
       <c r="N21">
-        <v>1.00939983310309</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010709089364352</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.042013955187532</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.036390395285258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9832852062516219</v>
+        <v>0.9885931514486397</v>
       </c>
       <c r="D22">
-        <v>1.005744079484933</v>
+        <v>1.018713486806813</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>1.014196373278855</v>
       </c>
       <c r="F22">
-        <v>0.9841151270855992</v>
+        <v>1.02534012946635</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036629285090808</v>
+        <v>1.049497454697587</v>
       </c>
       <c r="J22">
-        <v>1.014776971709305</v>
+        <v>1.019842297258864</v>
       </c>
       <c r="K22">
-        <v>1.021202597456679</v>
+        <v>1.033923123171993</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>1.029491747393229</v>
       </c>
       <c r="M22">
-        <v>1.000007973837184</v>
+        <v>1.040425770540434</v>
       </c>
       <c r="N22">
-        <v>1.008928297338165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009953105359732</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.040566676232526</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.035125307966047</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9847852936848764</v>
+        <v>0.9904878423707125</v>
       </c>
       <c r="D23">
-        <v>1.006806876797562</v>
+        <v>1.019969924201573</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>1.015558997230122</v>
       </c>
       <c r="F23">
-        <v>0.9860078588232603</v>
+        <v>1.026628337132293</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037057495579458</v>
+        <v>1.050000906450416</v>
       </c>
       <c r="J23">
-        <v>1.015531667499975</v>
+        <v>1.020981401752243</v>
       </c>
       <c r="K23">
-        <v>1.021934967758537</v>
+        <v>1.0348519895531</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285314</v>
+        <v>1.030522578815527</v>
       </c>
       <c r="M23">
-        <v>1.001542321356774</v>
+        <v>1.041389076533958</v>
       </c>
       <c r="N23">
-        <v>1.009179291828728</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010347273977058</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.04132906786537</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.035772433376069</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9905696780002677</v>
+        <v>0.9977989167950163</v>
       </c>
       <c r="D24">
-        <v>1.010913812019849</v>
+        <v>1.024837402645212</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>1.020850154567956</v>
       </c>
       <c r="F24">
-        <v>0.9933045395631513</v>
+        <v>1.031623078945234</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038691331926714</v>
+        <v>1.051924567060633</v>
       </c>
       <c r="J24">
-        <v>1.018435636138928</v>
+        <v>1.025381959676162</v>
       </c>
       <c r="K24">
-        <v>1.024751941819366</v>
+        <v>1.03844194692906</v>
       </c>
       <c r="L24">
-        <v>0.953371659644254</v>
+        <v>1.03452075126957</v>
       </c>
       <c r="M24">
-        <v>1.007450264153234</v>
+        <v>1.045116719668776</v>
       </c>
       <c r="N24">
-        <v>1.010145129483258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011876029564679</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.044279238089449</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.038303208395033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9970468411262091</v>
+        <v>1.005953348416136</v>
       </c>
       <c r="D25">
-        <v>1.015528762415165</v>
+        <v>1.030286929132255</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>1.02681211457253</v>
       </c>
       <c r="F25">
-        <v>1.001474452953238</v>
+        <v>1.03723745479318</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040484324409736</v>
+        <v>1.054017476940637</v>
       </c>
       <c r="J25">
-        <v>1.021674001220005</v>
+        <v>1.030282006369226</v>
       </c>
       <c r="K25">
-        <v>1.027890703903601</v>
+        <v>1.04243259309571</v>
       </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>1.039007991634365</v>
       </c>
       <c r="M25">
-        <v>1.014049922978365</v>
+        <v>1.049283955972048</v>
       </c>
       <c r="N25">
-        <v>1.01122222500064</v>
+        <v>1.013577753304663</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.047577301631868</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.041121923237816</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_2/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012176613378251</v>
+        <v>1.011010661946125</v>
       </c>
       <c r="D2">
-        <v>1.034445383501676</v>
+        <v>1.032813081972769</v>
       </c>
       <c r="E2">
-        <v>1.031405783803611</v>
+        <v>1.030677472697372</v>
       </c>
       <c r="F2">
-        <v>1.041552129531481</v>
+        <v>1.040526483820895</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.055559716173994</v>
+        <v>1.05471836494642</v>
       </c>
       <c r="J2">
-        <v>1.033999125119479</v>
+        <v>1.032866960476386</v>
       </c>
       <c r="K2">
-        <v>1.045444823748477</v>
+        <v>1.043833449751834</v>
       </c>
       <c r="L2">
-        <v>1.042444260880916</v>
+        <v>1.041725346071703</v>
       </c>
       <c r="M2">
-        <v>1.052461408826581</v>
+        <v>1.051448680260005</v>
       </c>
       <c r="N2">
-        <v>1.014858874531406</v>
+        <v>1.01568034619774</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.050092013885272</v>
+        <v>1.049290517177847</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.043203703351871</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042073058087654</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023616263279107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016588697024794</v>
+        <v>1.015148512553825</v>
       </c>
       <c r="D3">
-        <v>1.037407982856648</v>
+        <v>1.035500041681603</v>
       </c>
       <c r="E3">
-        <v>1.034687527761019</v>
+        <v>1.033803932496708</v>
       </c>
       <c r="F3">
-        <v>1.044628601829536</v>
+        <v>1.043415799261674</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056632519174243</v>
+        <v>1.055647800473536</v>
       </c>
       <c r="J3">
-        <v>1.036637130590638</v>
+        <v>1.035234562947384</v>
       </c>
       <c r="K3">
-        <v>1.047583589965088</v>
+        <v>1.045697981459032</v>
       </c>
       <c r="L3">
-        <v>1.044895009057289</v>
+        <v>1.04402181111117</v>
       </c>
       <c r="M3">
-        <v>1.054720602747362</v>
+        <v>1.053521743135411</v>
       </c>
       <c r="N3">
-        <v>1.015773050219026</v>
+        <v>1.016327047610357</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.051879988877783</v>
+        <v>1.050931185950938</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.044713332245088</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043388503335395</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024017575348971</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019387768993004</v>
+        <v>1.017775643940777</v>
       </c>
       <c r="D4">
-        <v>1.039290404123972</v>
+        <v>1.037208799827426</v>
       </c>
       <c r="E4">
-        <v>1.036780255886901</v>
+        <v>1.035799434878003</v>
       </c>
       <c r="F4">
-        <v>1.046587687499543</v>
+        <v>1.045257224227935</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.057300618095521</v>
+        <v>1.056225401154979</v>
       </c>
       <c r="J4">
-        <v>1.038308207763285</v>
+        <v>1.036735323336667</v>
       </c>
       <c r="K4">
-        <v>1.048936672792458</v>
+        <v>1.046877967048071</v>
       </c>
       <c r="L4">
-        <v>1.046454151304971</v>
+        <v>1.045484169961308</v>
       </c>
       <c r="M4">
-        <v>1.056154564992539</v>
+        <v>1.054838475224652</v>
       </c>
       <c r="N4">
-        <v>1.016352043942977</v>
+        <v>1.016737064073627</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.053014855441738</v>
+        <v>1.051973275591817</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.045670955074462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.044223814921645</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024269144728392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020556018962155</v>
+        <v>1.018872409424719</v>
       </c>
       <c r="D5">
-        <v>1.040078392272885</v>
+        <v>1.037924532581534</v>
       </c>
       <c r="E5">
-        <v>1.037656194228901</v>
+        <v>1.036634902495606</v>
       </c>
       <c r="F5">
-        <v>1.047407211352296</v>
+        <v>1.046027780696877</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.057577760577009</v>
+        <v>1.056464847403966</v>
       </c>
       <c r="J5">
-        <v>1.039006714615464</v>
+        <v>1.037362853947138</v>
       </c>
       <c r="K5">
-        <v>1.049502928616519</v>
+        <v>1.047372132627019</v>
       </c>
       <c r="L5">
-        <v>1.04710667588163</v>
+        <v>1.046096368225113</v>
       </c>
       <c r="M5">
-        <v>1.056754138754446</v>
+        <v>1.055389214065683</v>
       </c>
       <c r="N5">
-        <v>1.016594996283716</v>
+        <v>1.016909190335017</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.053489369670214</v>
+        <v>1.052409141536675</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046078452598192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044581052065884</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024374550207163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020756825555531</v>
+        <v>1.019060733654016</v>
       </c>
       <c r="D6">
-        <v>1.040215905419383</v>
+        <v>1.038049581247519</v>
       </c>
       <c r="E6">
-        <v>1.037806873992007</v>
+        <v>1.036778412341677</v>
       </c>
       <c r="F6">
-        <v>1.047548362618721</v>
+        <v>1.046160402255785</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.057626864108778</v>
+        <v>1.056507443385892</v>
       </c>
       <c r="J6">
-        <v>1.039128785625284</v>
+        <v>1.037472530001937</v>
       </c>
       <c r="K6">
-        <v>1.049603200593025</v>
+        <v>1.047459967458242</v>
       </c>
       <c r="L6">
-        <v>1.047219854594973</v>
+        <v>1.046202403083475</v>
       </c>
       <c r="M6">
-        <v>1.056858366502407</v>
+        <v>1.055484934999945</v>
       </c>
       <c r="N6">
-        <v>1.016638623865918</v>
+        <v>1.016940078571135</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.053571857487912</v>
+        <v>1.052484897009429</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046158025242599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044652702013068</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02439402262266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019417963129425</v>
+        <v>1.017814704265282</v>
       </c>
       <c r="D7">
-        <v>1.039316192690968</v>
+        <v>1.037240041617704</v>
       </c>
       <c r="E7">
-        <v>1.036802849901085</v>
+        <v>1.035825997970685</v>
       </c>
       <c r="F7">
-        <v>1.046609354956779</v>
+        <v>1.045283173273592</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.057312200261494</v>
+        <v>1.056239821772484</v>
       </c>
       <c r="J7">
-        <v>1.038331754570502</v>
+        <v>1.036767502742204</v>
       </c>
       <c r="K7">
-        <v>1.048959328213138</v>
+        <v>1.046906006564901</v>
       </c>
       <c r="L7">
-        <v>1.046473636545085</v>
+        <v>1.045507576192219</v>
       </c>
       <c r="M7">
-        <v>1.056173174935854</v>
+        <v>1.05486131494414</v>
       </c>
       <c r="N7">
-        <v>1.01636342989388</v>
+        <v>1.01677479337433</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.053029583713964</v>
+        <v>1.051991351416399</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.045706926692713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044265597667794</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024278232133106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013697779883785</v>
+        <v>1.012470841518302</v>
       </c>
       <c r="D8">
-        <v>1.03547282721239</v>
+        <v>1.033768109834406</v>
       </c>
       <c r="E8">
-        <v>1.032535174516075</v>
+        <v>1.031769891153214</v>
       </c>
       <c r="F8">
-        <v>1.042611869241309</v>
+        <v>1.041539204836173</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055937486854164</v>
+        <v>1.055058512884941</v>
       </c>
       <c r="J8">
-        <v>1.034915965125837</v>
+        <v>1.033723373795812</v>
       </c>
       <c r="K8">
-        <v>1.046192814128697</v>
+        <v>1.044509302143541</v>
       </c>
       <c r="L8">
-        <v>1.043291757992837</v>
+        <v>1.042536050998795</v>
       </c>
       <c r="M8">
-        <v>1.05324398841474</v>
+        <v>1.052184430804974</v>
       </c>
       <c r="N8">
-        <v>1.015180833055108</v>
+        <v>1.015998606451035</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.050711364801887</v>
+        <v>1.049872807186693</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.043755343544666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042575961731232</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023768045105472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003145403561141</v>
+        <v>1.002593368939636</v>
       </c>
       <c r="D9">
-        <v>1.028400100950175</v>
+        <v>1.027366052460609</v>
       </c>
       <c r="E9">
-        <v>1.024750920460166</v>
+        <v>1.024369036059321</v>
       </c>
       <c r="F9">
-        <v>1.035298132120397</v>
+        <v>1.034683214269142</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.05329757066267</v>
+        <v>1.052766400194772</v>
       </c>
       <c r="J9">
-        <v>1.028587576371019</v>
+        <v>1.028054879869448</v>
       </c>
       <c r="K9">
-        <v>1.04104861818489</v>
+        <v>1.040030206735045</v>
       </c>
       <c r="L9">
-        <v>1.037454800709512</v>
+        <v>1.037078739084248</v>
       </c>
       <c r="M9">
-        <v>1.047843352318544</v>
+        <v>1.04723757167778</v>
       </c>
       <c r="N9">
-        <v>1.012983761856111</v>
+        <v>1.01445870218421</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.046437170601614</v>
+        <v>1.045957739591455</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.040114929654115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.039405543546895</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02278872804635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9958486598953908</v>
+        <v>0.9958211604687776</v>
       </c>
       <c r="D10">
-        <v>1.023549593179735</v>
+        <v>1.023016067009452</v>
       </c>
       <c r="E10">
-        <v>1.019485959277386</v>
+        <v>1.01939719818589</v>
       </c>
       <c r="F10">
-        <v>1.030348463228196</v>
+        <v>1.030079257870665</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.051430179325302</v>
+        <v>1.051157622553364</v>
       </c>
       <c r="J10">
-        <v>1.024227958073407</v>
+        <v>1.024201562680389</v>
       </c>
       <c r="K10">
-        <v>1.037506283610834</v>
+        <v>1.036981832704068</v>
       </c>
       <c r="L10">
-        <v>1.03351208137576</v>
+        <v>1.033424844850944</v>
       </c>
       <c r="M10">
-        <v>1.044190565626683</v>
+        <v>1.043925860387082</v>
       </c>
       <c r="N10">
-        <v>1.011484836337356</v>
+        <v>1.013537270847533</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.043597373558026</v>
+        <v>1.04338789087642</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.037627037860774</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037268598620106</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022122399266269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.993160800850086</v>
+        <v>0.9933566200993045</v>
       </c>
       <c r="D11">
-        <v>1.021909139719738</v>
+        <v>1.021574776859051</v>
       </c>
       <c r="E11">
-        <v>1.01798907636972</v>
+        <v>1.017992089022701</v>
       </c>
       <c r="F11">
-        <v>1.029030892826502</v>
+        <v>1.028894154733299</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.050879950802742</v>
+        <v>1.050710193544935</v>
       </c>
       <c r="J11">
-        <v>1.022820892532514</v>
+        <v>1.023008407051277</v>
       </c>
       <c r="K11">
-        <v>1.036429380561289</v>
+        <v>1.036100979731625</v>
       </c>
       <c r="L11">
-        <v>1.03257953592164</v>
+        <v>1.032582494340166</v>
       </c>
       <c r="M11">
-        <v>1.04342533754308</v>
+        <v>1.04329099350033</v>
       </c>
       <c r="N11">
-        <v>1.011118120211179</v>
+        <v>1.013523205481158</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.043425517465543</v>
+        <v>1.043319252978966</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.036898376116632</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036681767674898</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021991785609809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9923392371197389</v>
+        <v>0.9925938139698167</v>
       </c>
       <c r="D12">
-        <v>1.021462756020064</v>
+        <v>1.02118034521953</v>
       </c>
       <c r="E12">
-        <v>1.017722015414368</v>
+        <v>1.017731409970167</v>
       </c>
       <c r="F12">
-        <v>1.028844690816366</v>
+        <v>1.028738274376761</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.050769786935412</v>
+        <v>1.050626859872841</v>
       </c>
       <c r="J12">
-        <v>1.022471390492021</v>
+        <v>1.022714958271842</v>
       </c>
       <c r="K12">
-        <v>1.036190000214125</v>
+        <v>1.035912710125272</v>
       </c>
       <c r="L12">
-        <v>1.032517387347116</v>
+        <v>1.032526609989027</v>
       </c>
       <c r="M12">
-        <v>1.043439378861967</v>
+        <v>1.043334855783855</v>
       </c>
       <c r="N12">
-        <v>1.011087634733812</v>
+        <v>1.013602488516836</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.043761334847042</v>
+        <v>1.043678686074857</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.036729127272384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03654865830947</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02199216114294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9929241820320243</v>
+        <v>0.993094857654014</v>
       </c>
       <c r="D13">
-        <v>1.021929404430487</v>
+        <v>1.021575931386382</v>
       </c>
       <c r="E13">
-        <v>1.018403029803809</v>
+        <v>1.018345982735062</v>
       </c>
       <c r="F13">
-        <v>1.029541876011952</v>
+        <v>1.029379845369292</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.051009014039532</v>
+        <v>1.050829515845082</v>
       </c>
       <c r="J13">
-        <v>1.022937323002253</v>
+        <v>1.023100656353866</v>
       </c>
       <c r="K13">
-        <v>1.036605529787177</v>
+        <v>1.036258437551644</v>
       </c>
       <c r="L13">
-        <v>1.033143070499174</v>
+        <v>1.033087062140127</v>
       </c>
       <c r="M13">
-        <v>1.044081962058363</v>
+        <v>1.043922799812283</v>
       </c>
       <c r="N13">
-        <v>1.011326617369302</v>
+        <v>1.013729314232761</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.044544790673722</v>
+        <v>1.044418968815129</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037020432694849</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036790364518387</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022099858719003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9939708873751936</v>
+        <v>0.9940194369071043</v>
       </c>
       <c r="D14">
-        <v>1.02267028214955</v>
+        <v>1.022212504061253</v>
       </c>
       <c r="E14">
-        <v>1.019307156557465</v>
+        <v>1.019173446675725</v>
       </c>
       <c r="F14">
-        <v>1.030429388824299</v>
+        <v>1.030190972758026</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.051334647699666</v>
+        <v>1.051101430707573</v>
       </c>
       <c r="J14">
-        <v>1.023632669325149</v>
+        <v>1.0236791612654</v>
       </c>
       <c r="K14">
-        <v>1.037193395471171</v>
+        <v>1.036743776171094</v>
       </c>
       <c r="L14">
-        <v>1.033890431452659</v>
+        <v>1.033759124115721</v>
       </c>
       <c r="M14">
-        <v>1.044815643024103</v>
+        <v>1.044581392499698</v>
       </c>
       <c r="N14">
-        <v>1.011615819997539</v>
+        <v>1.013841747192832</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04529734414132</v>
+        <v>1.045112187870464</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.037437491652984</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037135065369564</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022224635635425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9945390111198321</v>
+        <v>0.994526790964447</v>
       </c>
       <c r="D15">
-        <v>1.023058351388784</v>
+        <v>1.022548314973247</v>
       </c>
       <c r="E15">
-        <v>1.01974573988631</v>
+        <v>1.019577960207506</v>
       </c>
       <c r="F15">
-        <v>1.030851708700132</v>
+        <v>1.030576029186674</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.051495107942136</v>
+        <v>1.051234954594591</v>
       </c>
       <c r="J15">
-        <v>1.023988275787299</v>
+        <v>1.023976568871111</v>
       </c>
       <c r="K15">
-        <v>1.037488551295324</v>
+        <v>1.036987534766079</v>
       </c>
       <c r="L15">
-        <v>1.034234731632922</v>
+        <v>1.034069942884102</v>
       </c>
       <c r="M15">
-        <v>1.045145521250354</v>
+        <v>1.04487462071331</v>
       </c>
       <c r="N15">
-        <v>1.011749339070787</v>
+        <v>1.013885944742331</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.045595469739885</v>
+        <v>1.045381350163087</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.037652028456314</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037313830049027</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022281948909818</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9975296209598956</v>
+        <v>0.9972324571665797</v>
       </c>
       <c r="D16">
-        <v>1.025036695579976</v>
+        <v>1.024276379334104</v>
       </c>
       <c r="E16">
-        <v>1.021855435838302</v>
+        <v>1.021543296231377</v>
       </c>
       <c r="F16">
-        <v>1.032843623980785</v>
+        <v>1.032393869738625</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.052265052213173</v>
+        <v>1.051875724123942</v>
       </c>
       <c r="J16">
-        <v>1.025764496146317</v>
+        <v>1.025479172333807</v>
       </c>
       <c r="K16">
-        <v>1.038932759688038</v>
+        <v>1.038185294055991</v>
       </c>
       <c r="L16">
-        <v>1.035805433040202</v>
+        <v>1.035498608623703</v>
       </c>
       <c r="M16">
-        <v>1.046609146888312</v>
+        <v>1.046166844080023</v>
       </c>
       <c r="N16">
-        <v>1.012345064943496</v>
+        <v>1.014071143497704</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04671376961852</v>
+        <v>1.046364163802193</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038676280565045</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038164129043779</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02253762782545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,105 +1369,123 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9992757541697783</v>
+        <v>0.9988372693578247</v>
       </c>
       <c r="D17">
-        <v>1.02616657322937</v>
+        <v>1.0252773178164</v>
       </c>
       <c r="E17">
-        <v>1.023001015864962</v>
+        <v>1.022622102227759</v>
       </c>
       <c r="F17">
-        <v>1.033903319878711</v>
+        <v>1.033365769771827</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.052681384791174</v>
+        <v>1.052225389313398</v>
       </c>
       <c r="J17">
-        <v>1.026761792555117</v>
+        <v>1.026340203034334</v>
       </c>
       <c r="K17">
-        <v>1.039730852173637</v>
+        <v>1.038856199130872</v>
       </c>
       <c r="L17">
-        <v>1.036617424953567</v>
+        <v>1.036244779073521</v>
       </c>
       <c r="M17">
-        <v>1.047341914480015</v>
+        <v>1.046813018869894</v>
       </c>
       <c r="N17">
-        <v>1.012650443583382</v>
+        <v>1.014184718238156</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.047164544044619</v>
+        <v>1.04674645198351</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.039243132166318</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038641299940081</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02266945016574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>1.000100410430421</v>
+        <v>0.9996175051543059</v>
       </c>
       <c r="D18">
-        <v>1.02664914910287</v>
+        <v>1.025715127414101</v>
       </c>
       <c r="E18">
-        <v>1.023385894674786</v>
+        <v>1.02299595824218</v>
       </c>
       <c r="F18">
-        <v>1.034218229013398</v>
+        <v>1.033653081758744</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.05282133193123</v>
+        <v>1.052342091793737</v>
       </c>
       <c r="J18">
-        <v>1.02715962491693</v>
+        <v>1.026694970475894</v>
       </c>
       <c r="K18">
-        <v>1.040023209541254</v>
+        <v>1.039104271507848</v>
       </c>
       <c r="L18">
-        <v>1.03681280796507</v>
+        <v>1.036429216058113</v>
       </c>
       <c r="M18">
-        <v>1.047471342292929</v>
+        <v>1.046915147215007</v>
       </c>
       <c r="N18">
-        <v>1.012721478544589</v>
+        <v>1.014198087789317</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.047030464108095</v>
+        <v>1.046590701034483</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039438246985636</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038803967191228</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022695446699427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.00010275986146</v>
+        <v>0.9996532242375473</v>
       </c>
       <c r="D19">
-        <v>1.026558668966744</v>
+        <v>1.025650090844406</v>
       </c>
       <c r="E19">
-        <v>1.023085300716344</v>
+        <v>1.022730743317494</v>
       </c>
       <c r="F19">
-        <v>1.033863258979905</v>
+        <v>1.03332070068448</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.052720044740282</v>
+        <v>1.052253823137352</v>
       </c>
       <c r="J19">
-        <v>1.0270272810789</v>
+        <v>1.026594634854058</v>
       </c>
       <c r="K19">
-        <v>1.039872016269135</v>
+        <v>1.038978035562457</v>
       </c>
       <c r="L19">
-        <v>1.036454631520912</v>
+        <v>1.036105816316704</v>
       </c>
       <c r="M19">
-        <v>1.047060442488681</v>
+        <v>1.046526440134846</v>
       </c>
       <c r="N19">
-        <v>1.012593181605039</v>
+        <v>1.014108132640674</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.046382072679234</v>
+        <v>1.04595972022892</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.03933771822306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038721709042151</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022629501306153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9977819653217227</v>
+        <v>0.9975803232622227</v>
       </c>
       <c r="D20">
-        <v>1.024846970596633</v>
+        <v>1.024157904736225</v>
       </c>
       <c r="E20">
-        <v>1.020880464963626</v>
+        <v>1.020693697271982</v>
       </c>
       <c r="F20">
-        <v>1.031661079732545</v>
+        <v>1.031281293053431</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.051940203423121</v>
+        <v>1.051587276369773</v>
       </c>
       <c r="J20">
-        <v>1.025398657053176</v>
+        <v>1.025204839096025</v>
       </c>
       <c r="K20">
-        <v>1.038466547115996</v>
+        <v>1.037788863257035</v>
       </c>
       <c r="L20">
-        <v>1.034565831248326</v>
+        <v>1.034382177585672</v>
       </c>
       <c r="M20">
-        <v>1.045169151997247</v>
+        <v>1.044795530244184</v>
       </c>
       <c r="N20">
-        <v>1.011897642110219</v>
+        <v>1.013712825407348</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.044361332462403</v>
+        <v>1.044065651873211</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038347916168669</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037885229951392</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022302402782021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9921786168803772</v>
+        <v>0.9925495418794802</v>
       </c>
       <c r="D21">
-        <v>1.021100998553058</v>
+        <v>1.020910783227293</v>
       </c>
       <c r="E21">
-        <v>1.016779478743373</v>
+        <v>1.016916510484704</v>
       </c>
       <c r="F21">
-        <v>1.027780955178408</v>
+        <v>1.027758759499959</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.050454560330592</v>
+        <v>1.05035915298451</v>
       </c>
       <c r="J21">
-        <v>1.0220070261435</v>
+        <v>1.022362100507732</v>
       </c>
       <c r="K21">
-        <v>1.035693337813667</v>
+        <v>1.035506536112436</v>
       </c>
       <c r="L21">
-        <v>1.031449782355035</v>
+        <v>1.031584328680691</v>
       </c>
       <c r="M21">
-        <v>1.04225445424054</v>
+        <v>1.042232650119014</v>
       </c>
       <c r="N21">
-        <v>1.010709089364352</v>
+        <v>1.013367586585878</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.042013955187532</v>
+        <v>1.041996698723209</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.036390395285258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036275115970668</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021802883430861</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9885931514486397</v>
+        <v>0.9893293103806082</v>
       </c>
       <c r="D22">
-        <v>1.018713486806813</v>
+        <v>1.018841508407893</v>
       </c>
       <c r="E22">
-        <v>1.014196373278855</v>
+        <v>1.014542203370137</v>
       </c>
       <c r="F22">
-        <v>1.02534012946635</v>
+        <v>1.025546416657216</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.049497454697587</v>
+        <v>1.049566027766836</v>
       </c>
       <c r="J22">
-        <v>1.019842297258864</v>
+        <v>1.020545101896466</v>
       </c>
       <c r="K22">
-        <v>1.033923123171993</v>
+        <v>1.034048729315309</v>
       </c>
       <c r="L22">
-        <v>1.029491747393229</v>
+        <v>1.029830978096388</v>
       </c>
       <c r="M22">
-        <v>1.040425770540434</v>
+        <v>1.040628231298828</v>
       </c>
       <c r="N22">
-        <v>1.009953105359732</v>
+        <v>1.013141334471604</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.040566676232526</v>
+        <v>1.040726910315571</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.035125307966047</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035229622829375</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021483377732822</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9904878423707125</v>
+        <v>0.9910129687854509</v>
       </c>
       <c r="D23">
-        <v>1.019969924201573</v>
+        <v>1.019917376138019</v>
       </c>
       <c r="E23">
-        <v>1.015558997230122</v>
+        <v>1.015784696011327</v>
       </c>
       <c r="F23">
-        <v>1.026628337132293</v>
+        <v>1.026704375840948</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.050000906450416</v>
+        <v>1.049976457437929</v>
       </c>
       <c r="J23">
-        <v>1.020981401752243</v>
+        <v>1.021483456515403</v>
       </c>
       <c r="K23">
-        <v>1.0348519895531</v>
+        <v>1.034800407199141</v>
       </c>
       <c r="L23">
-        <v>1.030522578815527</v>
+        <v>1.030744084150159</v>
       </c>
       <c r="M23">
-        <v>1.041389076533958</v>
+        <v>1.041463741522817</v>
       </c>
       <c r="N23">
-        <v>1.010347273977058</v>
+        <v>1.013210278820815</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.04132906786537</v>
+        <v>1.041388160127629</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.035772433376069</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.035750524905396</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021644400926623</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9977989167950163</v>
+        <v>0.9976013617260804</v>
       </c>
       <c r="D24">
-        <v>1.024837402645212</v>
+        <v>1.024150915929732</v>
       </c>
       <c r="E24">
-        <v>1.020850154567956</v>
+        <v>1.020668959787399</v>
       </c>
       <c r="F24">
-        <v>1.031623078945234</v>
+        <v>1.03124637500838</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.051924567060633</v>
+        <v>1.051572988028141</v>
       </c>
       <c r="J24">
-        <v>1.025381959676162</v>
+        <v>1.025192058941279</v>
       </c>
       <c r="K24">
-        <v>1.03844194692906</v>
+        <v>1.0377667853309</v>
       </c>
       <c r="L24">
-        <v>1.03452075126957</v>
+        <v>1.034342573936987</v>
       </c>
       <c r="M24">
-        <v>1.045116719668776</v>
+        <v>1.04474612335855</v>
       </c>
       <c r="N24">
-        <v>1.011876029564679</v>
+        <v>1.013695306522782</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.044279238089449</v>
+        <v>1.043985937426073</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038303208395033</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037839634190827</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02228904428436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005953348416136</v>
+        <v>1.005204281885614</v>
       </c>
       <c r="D25">
-        <v>1.030286929132255</v>
+        <v>1.029063348362429</v>
       </c>
       <c r="E25">
-        <v>1.02681211457253</v>
+        <v>1.026318181216926</v>
       </c>
       <c r="F25">
-        <v>1.03723745479318</v>
+        <v>1.03649140450249</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.054017476940637</v>
+        <v>1.053388151510875</v>
       </c>
       <c r="J25">
-        <v>1.030282006369226</v>
+        <v>1.029557761629954</v>
       </c>
       <c r="K25">
-        <v>1.04243259309571</v>
+        <v>1.041226644770689</v>
       </c>
       <c r="L25">
-        <v>1.039007991634365</v>
+        <v>1.038521230902204</v>
       </c>
       <c r="M25">
-        <v>1.049283955972048</v>
+        <v>1.048548468976207</v>
       </c>
       <c r="N25">
-        <v>1.013577753304663</v>
+        <v>1.014839019798408</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.047577301631868</v>
+        <v>1.046995218400832</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041121923237816</v>
+        <v>1.040282740352847</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023054537029981</v>
       </c>
     </row>
   </sheetData>
